--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>666913.6648887147</v>
+        <v>662389.2562587146</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30165426.96050235</v>
+        <v>30165426.96050233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7431985.477503143</v>
+        <v>7431985.47750314</v>
       </c>
     </row>
     <row r="9">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6530000821519226</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0.7413715737419651</v>
@@ -1141,10 +1141,10 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.6530000821519227</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,16 +1229,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.6530000821519226</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6530000821519227</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1256,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>223.8518589346266</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.3416766198384</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.79695632652504</v>
+        <v>58.79695632652505</v>
       </c>
       <c r="T11" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.6150406962232</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>89.50403794012031</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>61.09168024046795</v>
+        <v>61.09168024046796</v>
       </c>
       <c r="T12" t="n">
         <v>136.2471199530304</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.4122885972843</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>7.157826386379099</v>
       </c>
       <c r="S13" t="n">
-        <v>145.4120088553215</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T13" t="n">
-        <v>237.16093036331</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3347951985322</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>231.5875274577637</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>39.97393191503805</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.3416766198384</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.79695632652505</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>189.572394576242</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>75.40811803711492</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>33.90121585187376</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>134.5654687717742</v>
       </c>
       <c r="I16" t="n">
-        <v>72.4122885972843</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>7.157826386379099</v>
       </c>
       <c r="S16" t="n">
         <v>153.1587802408334</v>
@@ -1824,16 +1824,16 @@
         <v>277.3347951985322</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3416766198384</v>
+        <v>53.61065731183542</v>
       </c>
       <c r="H17" t="n">
         <v>274.8783417406876</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.79695632652505</v>
       </c>
       <c r="T17" t="n">
         <v>210.1627014039893</v>
@@ -1906,10 +1906,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>119.8554904768082</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>106.6257034331968</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,7 +2019,7 @@
         <v>163.7179050456562</v>
       </c>
       <c r="H19" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>72.4122885972843</v>
@@ -2064,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>157.6404241235431</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>320.0234703597758</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3416766198384</v>
+        <v>19.09369980627915</v>
       </c>
       <c r="H20" t="n">
         <v>274.8783417406876</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.79695632652505</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2256,7 +2256,7 @@
         <v>163.7179050456562</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5654687717742</v>
+        <v>72.18716131588586</v>
       </c>
       <c r="I22" t="n">
         <v>72.4122885972843</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.157826386379099</v>
       </c>
       <c r="S22" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U22" t="n">
         <v>277.3347951985322</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>153.4821012426432</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>119.8554904768082</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2335,7 +2335,7 @@
         <v>398.3416766198384</v>
       </c>
       <c r="H23" t="n">
-        <v>274.8783417406876</v>
+        <v>37.51050651942924</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H25" t="n">
-        <v>90.09377750707696</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.4122885972843</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.16093036331</v>
@@ -2535,7 +2535,7 @@
         <v>277.3347951985322</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>260.5884565277172</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2560,19 +2560,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>191.4470136800249</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.8783417406876</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>310.1512702365669</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2733,7 +2733,7 @@
         <v>134.5654687717742</v>
       </c>
       <c r="I28" t="n">
-        <v>72.4122885972843</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.157826386379099</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.16093036331</v>
@@ -2772,13 +2772,13 @@
         <v>277.3347951985322</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8654789168753</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>21.45541195810972</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>103.0793953522309</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.3416766198384</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>147.6789811964024</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>76.49700072931363</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>7.446588947094014</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.157826386379099</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.0625981727829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -3037,10 +3037,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>290.5622275887318</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>180.6272186461215</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>30.52893774855212</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U34" t="n">
         <v>277.3347951985322</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>418.0763858770767</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>201.4491925003981</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.31924659844236</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.157826386379092</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>118.9076834430458</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>290.5622275887318</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3514,10 +3514,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>314.3746274428325</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.79695632652505</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T38" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>163.7179050456562</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.4122885972843</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.157826386379099</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.16093036331</v>
+        <v>161.5005490996478</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>165.3979723206585</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>349.3591839152569</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>367.1349811774481</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3918,7 +3918,7 @@
         <v>134.5654687717742</v>
       </c>
       <c r="I43" t="n">
-        <v>72.4122885972843</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.157826386379092</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T43" t="n">
         <v>237.16093036331</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3347951985322</v>
+        <v>18.77217070011773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>69.47995112016649</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>221.1838256216508</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.79695632652505</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>295.7852869326106</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>16.79963259377735</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4120088553219</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T46" t="n">
         <v>237.16093036331</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.557030076893226</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8081699013962916</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05930972589935721</v>
+        <v>1.467765943973991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.718905768477057</v>
       </c>
       <c r="F8" t="n">
         <v>0.05930972589935721</v>
@@ -4810,22 +4810,22 @@
         <v>0.7932675839039026</v>
       </c>
       <c r="L8" t="n">
-        <v>1.497570578958769</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="M8" t="n">
-        <v>1.497570578958769</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="N8" t="n">
-        <v>2.231528436963315</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="O8" t="n">
-        <v>2.231528436963315</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="P8" t="n">
-        <v>2.231528436963315</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.231528436963315</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="R8" t="n">
         <v>2.231528436963315</v>
@@ -4849,7 +4849,7 @@
         <v>2.96548629496786</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.216626119470926</v>
+        <v>2.96548629496786</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="C9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="D9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="E9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="F9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="G9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="H9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="I9" t="n">
-        <v>0.718905768477057</v>
+        <v>1.557030076893226</v>
       </c>
       <c r="J9" t="n">
-        <v>0.718905768477057</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="K9" t="n">
         <v>0.05930972589935721</v>
@@ -4904,31 +4904,31 @@
         <v>2.96548629496786</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.216626119470926</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="R9" t="n">
-        <v>1.467765943973991</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="S9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="T9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="U9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="V9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="W9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="X9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.96548629496786</v>
       </c>
     </row>
     <row r="10">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>721.9423131585411</v>
+        <v>1373.179483791996</v>
       </c>
       <c r="C11" t="n">
-        <v>721.9423131585411</v>
+        <v>1373.179483791996</v>
       </c>
       <c r="D11" t="n">
-        <v>721.9423131585411</v>
+        <v>1147.066494969141</v>
       </c>
       <c r="E11" t="n">
-        <v>721.9423131585411</v>
+        <v>1147.066494969141</v>
       </c>
       <c r="F11" t="n">
         <v>721.9423131585411</v>
@@ -5038,28 +5038,28 @@
         <v>41.9220925923532</v>
       </c>
       <c r="I11" t="n">
-        <v>82.2977537478547</v>
+        <v>82.29775374785459</v>
       </c>
       <c r="J11" t="n">
-        <v>217.3564621562498</v>
+        <v>217.3564621562497</v>
       </c>
       <c r="K11" t="n">
-        <v>428.0194649169802</v>
+        <v>428.01946491698</v>
       </c>
       <c r="L11" t="n">
-        <v>695.3620842405355</v>
+        <v>695.3620842405353</v>
       </c>
       <c r="M11" t="n">
-        <v>997.9785432306624</v>
+        <v>997.9785432306619</v>
       </c>
       <c r="N11" t="n">
-        <v>1306.241396764578</v>
+        <v>1306.241396764577</v>
       </c>
       <c r="O11" t="n">
-        <v>1595.158288098558</v>
+        <v>1595.158288098557</v>
       </c>
       <c r="P11" t="n">
-        <v>1836.135757884009</v>
+        <v>1836.135757884008</v>
       </c>
       <c r="Q11" t="n">
         <v>2009.271730617951</v>
@@ -5071,22 +5071,22 @@
         <v>2036.713764641372</v>
       </c>
       <c r="T11" t="n">
-        <v>1824.428207667645</v>
+        <v>2036.713764641372</v>
       </c>
       <c r="U11" t="n">
-        <v>1566.231196863379</v>
+        <v>1778.516753837106</v>
       </c>
       <c r="V11" t="n">
-        <v>1208.741781989629</v>
+        <v>1778.516753837106</v>
       </c>
       <c r="W11" t="n">
-        <v>812.3504322899757</v>
+        <v>1778.516753837106</v>
       </c>
       <c r="X11" t="n">
-        <v>721.9423131585411</v>
+        <v>1778.516753837106</v>
       </c>
       <c r="Y11" t="n">
-        <v>721.9423131585411</v>
+        <v>1373.179483791996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>41.9220925923532</v>
       </c>
       <c r="I12" t="n">
-        <v>61.54715157330344</v>
+        <v>85.00445741771527</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7270672914883</v>
+        <v>325.2715670065826</v>
       </c>
       <c r="K12" t="n">
-        <v>575.6856311272714</v>
+        <v>470.2301308423657</v>
       </c>
       <c r="L12" t="n">
-        <v>778.1277221400701</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M12" t="n">
-        <v>1017.513584853441</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N12" t="n">
-        <v>1265.576683836778</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O12" t="n">
-        <v>1488.89523962663</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P12" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q12" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R12" t="n">
         <v>1815.413022142049</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.8946557134372</v>
+        <v>761.033077572951</v>
       </c>
       <c r="C13" t="n">
-        <v>41.9220925923532</v>
+        <v>589.060514451867</v>
       </c>
       <c r="D13" t="n">
-        <v>41.9220925923532</v>
+        <v>589.060514451867</v>
       </c>
       <c r="E13" t="n">
-        <v>41.9220925923532</v>
+        <v>422.8523086047205</v>
       </c>
       <c r="F13" t="n">
-        <v>41.9220925923532</v>
+        <v>250.990534379281</v>
       </c>
       <c r="G13" t="n">
-        <v>41.9220925923532</v>
+        <v>250.990534379281</v>
       </c>
       <c r="H13" t="n">
-        <v>41.9220925923532</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I13" t="n">
         <v>41.9220925923532</v>
       </c>
       <c r="J13" t="n">
-        <v>82.84021611732985</v>
+        <v>160.7619327655507</v>
       </c>
       <c r="K13" t="n">
-        <v>162.8996588596175</v>
+        <v>488.1039846218603</v>
       </c>
       <c r="L13" t="n">
-        <v>646.5967677861062</v>
+        <v>971.8010935483489</v>
       </c>
       <c r="M13" t="n">
-        <v>1165.382663616477</v>
+        <v>1288.276287617964</v>
       </c>
       <c r="N13" t="n">
-        <v>1335.575113340018</v>
+        <v>1400.521233069913</v>
       </c>
       <c r="O13" t="n">
-        <v>1813.652935189855</v>
+        <v>1500.896730616547</v>
       </c>
       <c r="P13" t="n">
         <v>1896.443943434683</v>
@@ -5223,28 +5223,28 @@
         <v>2096.10462961766</v>
       </c>
       <c r="R13" t="n">
-        <v>2096.10462961766</v>
+        <v>2088.87450195465</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.223812592083</v>
+        <v>1934.168663327546</v>
       </c>
       <c r="T13" t="n">
-        <v>1709.667317275608</v>
+        <v>1934.168663327546</v>
       </c>
       <c r="U13" t="n">
-        <v>1429.531160509414</v>
+        <v>1654.032506561352</v>
       </c>
       <c r="V13" t="n">
-        <v>1147.819693117443</v>
+        <v>1420.105711149469</v>
       </c>
       <c r="W13" t="n">
-        <v>872.9672892899557</v>
+        <v>1420.105711149469</v>
       </c>
       <c r="X13" t="n">
-        <v>630.4033927357608</v>
+        <v>1177.541814595275</v>
       </c>
       <c r="Y13" t="n">
-        <v>404.0606244255029</v>
+        <v>951.1990462850167</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2036.713764641372</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="C14" t="n">
-        <v>1996.336055636283</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="D14" t="n">
-        <v>1573.043434821283</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="E14" t="n">
-        <v>1147.066494969141</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="F14" t="n">
         <v>721.9423131585411</v>
       </c>
       <c r="G14" t="n">
-        <v>319.5769832395123</v>
+        <v>319.5769832395124</v>
       </c>
       <c r="H14" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I14" t="n">
-        <v>82.29775374785459</v>
+        <v>82.29775374785436</v>
       </c>
       <c r="J14" t="n">
         <v>217.3564621562496</v>
       </c>
       <c r="K14" t="n">
-        <v>428.0194649169798</v>
+        <v>428.01946491698</v>
       </c>
       <c r="L14" t="n">
-        <v>695.3620842405351</v>
+        <v>695.3620842405353</v>
       </c>
       <c r="M14" t="n">
-        <v>997.9785432306621</v>
+        <v>997.9785432306624</v>
       </c>
       <c r="N14" t="n">
-        <v>1306.241396764577</v>
+        <v>1306.241396764578</v>
       </c>
       <c r="O14" t="n">
-        <v>1595.158288098557</v>
+        <v>1595.158288098558</v>
       </c>
       <c r="P14" t="n">
         <v>1836.135757884009</v>
       </c>
       <c r="Q14" t="n">
-        <v>2009.271730617951</v>
+        <v>2009.271730617952</v>
       </c>
       <c r="R14" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S14" t="n">
-        <v>2036.713764641372</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T14" t="n">
-        <v>2036.713764641372</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U14" t="n">
-        <v>2036.713764641372</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V14" t="n">
-        <v>2036.713764641372</v>
+        <v>1738.61521474391</v>
       </c>
       <c r="W14" t="n">
-        <v>2036.713764641372</v>
+        <v>1738.61521474391</v>
       </c>
       <c r="X14" t="n">
-        <v>2036.713764641372</v>
+        <v>1547.127947495181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2036.713764641372</v>
+        <v>1141.790677450071</v>
       </c>
     </row>
     <row r="15">
@@ -5348,31 +5348,31 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G15" t="n">
-        <v>85.09906283098431</v>
+        <v>85.09906283098432</v>
       </c>
       <c r="H15" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I15" t="n">
         <v>85.00445741771529</v>
       </c>
       <c r="J15" t="n">
-        <v>162.3865987704645</v>
+        <v>325.2715670065826</v>
       </c>
       <c r="K15" t="n">
-        <v>307.3451626062476</v>
+        <v>470.2301308423657</v>
       </c>
       <c r="L15" t="n">
-        <v>509.7872536190462</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M15" t="n">
-        <v>749.1731163324173</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N15" t="n">
-        <v>997.2362153157544</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O15" t="n">
-        <v>1220.554771105606</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P15" t="n">
         <v>1559.530945210204</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>622.5783711342336</v>
+        <v>755.4033776683596</v>
       </c>
       <c r="C16" t="n">
-        <v>450.6058080131496</v>
+        <v>679.2335614692536</v>
       </c>
       <c r="D16" t="n">
-        <v>450.6058080131496</v>
+        <v>515.9167885960243</v>
       </c>
       <c r="E16" t="n">
-        <v>450.6058080131496</v>
+        <v>349.7085827488778</v>
       </c>
       <c r="F16" t="n">
-        <v>416.3621556375195</v>
+        <v>177.8468085234383</v>
       </c>
       <c r="G16" t="n">
-        <v>250.990534379281</v>
+        <v>177.8468085234383</v>
       </c>
       <c r="H16" t="n">
-        <v>115.0658184481959</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I16" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="J16" t="n">
-        <v>82.84021611732983</v>
+        <v>160.7619327655507</v>
       </c>
       <c r="K16" t="n">
-        <v>162.8996588596174</v>
+        <v>488.1039846218603</v>
       </c>
       <c r="L16" t="n">
-        <v>646.5967677861061</v>
+        <v>595.4121999571839</v>
       </c>
       <c r="M16" t="n">
-        <v>1041.616862153983</v>
+        <v>709.083138296076</v>
       </c>
       <c r="N16" t="n">
-        <v>1551.894730447813</v>
+        <v>1022.818908766711</v>
       </c>
       <c r="O16" t="n">
-        <v>1652.270227994446</v>
+        <v>1500.896730616548</v>
       </c>
       <c r="P16" t="n">
-        <v>2047.817440812583</v>
+        <v>1896.443943434684</v>
       </c>
       <c r="Q16" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="R16" t="n">
-        <v>2096.10462961766</v>
+        <v>2088.874501954651</v>
       </c>
       <c r="S16" t="n">
-        <v>1941.398790990556</v>
+        <v>1934.168663327547</v>
       </c>
       <c r="T16" t="n">
-        <v>1701.842295674081</v>
+        <v>1694.612168011072</v>
       </c>
       <c r="U16" t="n">
-        <v>1421.706138907887</v>
+        <v>1414.476011244878</v>
       </c>
       <c r="V16" t="n">
-        <v>1139.994671515916</v>
+        <v>1414.476011244878</v>
       </c>
       <c r="W16" t="n">
-        <v>865.1422676884285</v>
+        <v>1414.476011244878</v>
       </c>
       <c r="X16" t="n">
-        <v>622.5783711342336</v>
+        <v>1171.912114690683</v>
       </c>
       <c r="Y16" t="n">
-        <v>622.5783711342336</v>
+        <v>945.5693463804253</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1147.066494969141</v>
+        <v>797.0217831573761</v>
       </c>
       <c r="C17" t="n">
-        <v>1147.066494969141</v>
+        <v>797.0217831573761</v>
       </c>
       <c r="D17" t="n">
-        <v>1147.066494969141</v>
+        <v>373.7291623423764</v>
       </c>
       <c r="E17" t="n">
-        <v>1147.066494969141</v>
+        <v>373.7291623423764</v>
       </c>
       <c r="F17" t="n">
-        <v>721.9423131585411</v>
+        <v>373.7291623423764</v>
       </c>
       <c r="G17" t="n">
         <v>319.5769832395123</v>
@@ -5512,25 +5512,25 @@
         <v>41.9220925923532</v>
       </c>
       <c r="I17" t="n">
-        <v>82.29775374785436</v>
+        <v>82.29775374785459</v>
       </c>
       <c r="J17" t="n">
         <v>217.3564621562496</v>
       </c>
       <c r="K17" t="n">
-        <v>428.01946491698</v>
+        <v>428.0194649169798</v>
       </c>
       <c r="L17" t="n">
-        <v>695.3620842405353</v>
+        <v>695.3620842405351</v>
       </c>
       <c r="M17" t="n">
-        <v>997.9785432306624</v>
+        <v>997.9785432306621</v>
       </c>
       <c r="N17" t="n">
-        <v>1306.241396764578</v>
+        <v>1306.241396764577</v>
       </c>
       <c r="O17" t="n">
-        <v>1595.158288098558</v>
+        <v>1595.158288098557</v>
       </c>
       <c r="P17" t="n">
         <v>1836.135757884009</v>
@@ -5542,25 +5542,25 @@
         <v>2096.10462961766</v>
       </c>
       <c r="S17" t="n">
-        <v>2096.10462961766</v>
+        <v>2036.713764641372</v>
       </c>
       <c r="T17" t="n">
-        <v>1883.819072643933</v>
+        <v>1824.428207667645</v>
       </c>
       <c r="U17" t="n">
-        <v>1625.622061839667</v>
+        <v>1566.231196863379</v>
       </c>
       <c r="V17" t="n">
-        <v>1268.132646965917</v>
+        <v>1208.741781989629</v>
       </c>
       <c r="W17" t="n">
-        <v>1147.066494969141</v>
+        <v>1208.741781989629</v>
       </c>
       <c r="X17" t="n">
-        <v>1147.066494969141</v>
+        <v>797.0217831573761</v>
       </c>
       <c r="Y17" t="n">
-        <v>1147.066494969141</v>
+        <v>797.0217831573761</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>85.00445741771529</v>
       </c>
       <c r="J18" t="n">
-        <v>162.3865987704645</v>
+        <v>325.2715670065826</v>
       </c>
       <c r="K18" t="n">
-        <v>307.3451626062476</v>
+        <v>470.2301308423657</v>
       </c>
       <c r="L18" t="n">
-        <v>778.1277221400703</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M18" t="n">
-        <v>1017.513584853441</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N18" t="n">
-        <v>1265.576683836779</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O18" t="n">
-        <v>1488.89523962663</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P18" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R18" t="n">
         <v>1815.413022142049</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>862.1348664507085</v>
+        <v>787.5885499261874</v>
       </c>
       <c r="C19" t="n">
-        <v>862.1348664507085</v>
+        <v>615.6159868051034</v>
       </c>
       <c r="D19" t="n">
-        <v>754.4321357101056</v>
+        <v>452.2992139318741</v>
       </c>
       <c r="E19" t="n">
-        <v>588.2239298629592</v>
+        <v>452.2992139318741</v>
       </c>
       <c r="F19" t="n">
-        <v>416.3621556375195</v>
+        <v>280.4374397064345</v>
       </c>
       <c r="G19" t="n">
-        <v>250.990534379281</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="H19" t="n">
         <v>115.0658184481959</v>
@@ -5673,25 +5673,25 @@
         <v>41.9220925923532</v>
       </c>
       <c r="J19" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732983</v>
       </c>
       <c r="K19" t="n">
-        <v>240.8213755078383</v>
+        <v>410.1822679736395</v>
       </c>
       <c r="L19" t="n">
-        <v>724.518484434327</v>
+        <v>893.8793769001281</v>
       </c>
       <c r="M19" t="n">
-        <v>1223.330167888068</v>
+        <v>1061.94746069266</v>
       </c>
       <c r="N19" t="n">
-        <v>1335.575113340018</v>
+        <v>1174.192406144609</v>
       </c>
       <c r="O19" t="n">
-        <v>1813.652935189855</v>
+        <v>1652.270227994446</v>
       </c>
       <c r="P19" t="n">
-        <v>1896.443943434684</v>
+        <v>2047.817440812583</v>
       </c>
       <c r="Q19" t="n">
         <v>2096.10462961766</v>
@@ -5712,13 +5712,13 @@
         <v>1379.55116683239</v>
       </c>
       <c r="W19" t="n">
-        <v>1104.698763004903</v>
+        <v>1220.318415192448</v>
       </c>
       <c r="X19" t="n">
-        <v>862.1348664507085</v>
+        <v>977.7545186382531</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.1348664507085</v>
+        <v>977.7545186382531</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1472.099073811681</v>
+        <v>1616.865400349843</v>
       </c>
       <c r="C20" t="n">
-        <v>1045.198343824981</v>
+        <v>1189.964670363143</v>
       </c>
       <c r="D20" t="n">
-        <v>1045.198343824981</v>
+        <v>1189.964670363143</v>
       </c>
       <c r="E20" t="n">
-        <v>1045.198343824981</v>
+        <v>763.9877305110002</v>
       </c>
       <c r="F20" t="n">
-        <v>721.9423131585411</v>
+        <v>338.8635487004004</v>
       </c>
       <c r="G20" t="n">
         <v>319.5769832395124</v>
@@ -5779,25 +5779,25 @@
         <v>2096.104629617661</v>
       </c>
       <c r="S20" t="n">
-        <v>2096.104629617661</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="T20" t="n">
-        <v>1883.819072643934</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="U20" t="n">
-        <v>1883.819072643934</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="V20" t="n">
-        <v>1883.819072643934</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="W20" t="n">
-        <v>1883.819072643934</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="X20" t="n">
-        <v>1472.099073811681</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="Y20" t="n">
-        <v>1472.099073811681</v>
+        <v>2036.713764641373</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>85.00445741771529</v>
       </c>
       <c r="J21" t="n">
-        <v>162.3865987704645</v>
+        <v>325.2715670065826</v>
       </c>
       <c r="K21" t="n">
-        <v>307.3451626062476</v>
+        <v>470.2301308423657</v>
       </c>
       <c r="L21" t="n">
-        <v>509.7872536190462</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M21" t="n">
-        <v>749.1731163324173</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N21" t="n">
-        <v>997.2362153157544</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O21" t="n">
-        <v>1220.554771105606</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P21" t="n">
         <v>1559.530945210204</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1089.721471704419</v>
+        <v>854.7405172137508</v>
       </c>
       <c r="C22" t="n">
-        <v>917.7489085833349</v>
+        <v>854.7405172137508</v>
       </c>
       <c r="D22" t="n">
-        <v>754.4321357101056</v>
+        <v>691.4237443405215</v>
       </c>
       <c r="E22" t="n">
-        <v>588.2239298629592</v>
+        <v>525.215538493375</v>
       </c>
       <c r="F22" t="n">
-        <v>416.3621556375195</v>
+        <v>353.3537642679354</v>
       </c>
       <c r="G22" t="n">
-        <v>250.990534379281</v>
+        <v>187.9821430096968</v>
       </c>
       <c r="H22" t="n">
         <v>115.0658184481959</v>
@@ -5913,49 +5913,49 @@
         <v>160.7619327655507</v>
       </c>
       <c r="K22" t="n">
-        <v>488.1039846218603</v>
+        <v>240.8213755078383</v>
       </c>
       <c r="L22" t="n">
-        <v>971.8010935483489</v>
+        <v>348.1295908431619</v>
       </c>
       <c r="M22" t="n">
-        <v>1288.276287617965</v>
+        <v>866.9154866735328</v>
       </c>
       <c r="N22" t="n">
-        <v>1400.521233069914</v>
+        <v>1377.193354967362</v>
       </c>
       <c r="O22" t="n">
-        <v>1500.896730616548</v>
+        <v>1855.2711768172</v>
       </c>
       <c r="P22" t="n">
-        <v>1896.443943434684</v>
+        <v>1938.062185062028</v>
       </c>
       <c r="Q22" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R22" t="n">
-        <v>2096.104629617661</v>
+        <v>2088.874501954651</v>
       </c>
       <c r="S22" t="n">
-        <v>1941.398790990556</v>
+        <v>2088.874501954651</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.398790990556</v>
+        <v>1849.318006638176</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.262634224362</v>
+        <v>1569.181849871982</v>
       </c>
       <c r="V22" t="n">
-        <v>1661.262634224362</v>
+        <v>1287.470382480011</v>
       </c>
       <c r="W22" t="n">
-        <v>1661.262634224362</v>
+        <v>1287.470382480011</v>
       </c>
       <c r="X22" t="n">
-        <v>1506.230208726743</v>
+        <v>1044.906485925816</v>
       </c>
       <c r="Y22" t="n">
-        <v>1279.887440416485</v>
+        <v>1044.906485925816</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1268.132646965917</v>
+        <v>1333.2779446988</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.132646965917</v>
+        <v>1333.2779446988</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.132646965917</v>
+        <v>1333.2779446988</v>
       </c>
       <c r="E23" t="n">
-        <v>1147.066494969141</v>
+        <v>907.3010048466577</v>
       </c>
       <c r="F23" t="n">
-        <v>721.9423131585411</v>
+        <v>482.176823036058</v>
       </c>
       <c r="G23" t="n">
-        <v>319.5769832395123</v>
+        <v>79.81149311702922</v>
       </c>
       <c r="H23" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I23" t="n">
         <v>82.29775374785459</v>
       </c>
       <c r="J23" t="n">
-        <v>217.3564621562497</v>
+        <v>217.3564621562493</v>
       </c>
       <c r="K23" t="n">
-        <v>428.01946491698</v>
+        <v>428.0194649169797</v>
       </c>
       <c r="L23" t="n">
-        <v>695.3620842405353</v>
+        <v>695.3620842405351</v>
       </c>
       <c r="M23" t="n">
-        <v>997.9785432306624</v>
+        <v>997.9785432306626</v>
       </c>
       <c r="N23" t="n">
         <v>1306.241396764578</v>
@@ -6010,31 +6010,31 @@
         <v>1836.135757884009</v>
       </c>
       <c r="Q23" t="n">
-        <v>2009.271730617951</v>
+        <v>2009.271730617952</v>
       </c>
       <c r="R23" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S23" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T23" t="n">
-        <v>1883.819072643933</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U23" t="n">
-        <v>1625.622061839667</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V23" t="n">
-        <v>1268.132646965917</v>
+        <v>1738.61521474391</v>
       </c>
       <c r="W23" t="n">
-        <v>1268.132646965917</v>
+        <v>1738.61521474391</v>
       </c>
       <c r="X23" t="n">
-        <v>1268.132646965917</v>
+        <v>1738.61521474391</v>
       </c>
       <c r="Y23" t="n">
-        <v>1268.132646965917</v>
+        <v>1333.2779446988</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G24" t="n">
-        <v>85.09906283098431</v>
+        <v>85.09906283098432</v>
       </c>
       <c r="H24" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I24" t="n">
-        <v>61.54715157330344</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J24" t="n">
-        <v>138.9292929260527</v>
+        <v>325.2715670065826</v>
       </c>
       <c r="K24" t="n">
-        <v>283.8878567618358</v>
+        <v>470.2301308423657</v>
       </c>
       <c r="L24" t="n">
-        <v>486.3299477746343</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M24" t="n">
-        <v>725.7158104880054</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N24" t="n">
-        <v>973.7789094713426</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O24" t="n">
-        <v>1197.097465261194</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P24" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q24" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R24" t="n">
         <v>1815.413022142049</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>206.06963411191</v>
+        <v>379.2662769716758</v>
       </c>
       <c r="C25" t="n">
-        <v>206.06963411191</v>
+        <v>207.2937138505918</v>
       </c>
       <c r="D25" t="n">
-        <v>206.06963411191</v>
+        <v>207.2937138505918</v>
       </c>
       <c r="E25" t="n">
-        <v>206.06963411191</v>
+        <v>207.2937138505918</v>
       </c>
       <c r="F25" t="n">
-        <v>206.06963411191</v>
+        <v>207.2937138505918</v>
       </c>
       <c r="G25" t="n">
-        <v>206.06963411191</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H25" t="n">
-        <v>115.0658184481959</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I25" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="J25" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732985</v>
       </c>
       <c r="K25" t="n">
-        <v>488.1039846218603</v>
+        <v>410.1822679736395</v>
       </c>
       <c r="L25" t="n">
-        <v>769.4903917875935</v>
+        <v>893.8793769001281</v>
       </c>
       <c r="M25" t="n">
-        <v>1288.276287617964</v>
+        <v>1007.55031523902</v>
       </c>
       <c r="N25" t="n">
-        <v>1400.521233069914</v>
+        <v>1119.79526069097</v>
       </c>
       <c r="O25" t="n">
-        <v>1500.896730616548</v>
+        <v>1597.873082540807</v>
       </c>
       <c r="P25" t="n">
         <v>1896.443943434684</v>
       </c>
       <c r="Q25" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="R25" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S25" t="n">
-        <v>1941.398790990556</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T25" t="n">
-        <v>1701.842295674081</v>
+        <v>1856.548134301186</v>
       </c>
       <c r="U25" t="n">
-        <v>1421.706138907887</v>
+        <v>1576.411977534992</v>
       </c>
       <c r="V25" t="n">
-        <v>1139.994671515916</v>
+        <v>1313.191314375681</v>
       </c>
       <c r="W25" t="n">
-        <v>865.1422676884285</v>
+        <v>1038.338910548194</v>
       </c>
       <c r="X25" t="n">
-        <v>622.5783711342336</v>
+        <v>795.7750139939994</v>
       </c>
       <c r="Y25" t="n">
-        <v>396.2356028239757</v>
+        <v>569.4322456837415</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1342.223865044256</v>
+        <v>1318.092383246195</v>
       </c>
       <c r="C26" t="n">
-        <v>915.3231350575561</v>
+        <v>891.1916532594954</v>
       </c>
       <c r="D26" t="n">
-        <v>915.3231350575561</v>
+        <v>467.8990324444957</v>
       </c>
       <c r="E26" t="n">
-        <v>915.3231350575561</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="F26" t="n">
-        <v>721.9423131585411</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="G26" t="n">
-        <v>319.5769832395123</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H26" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I26" t="n">
         <v>82.29775374785447</v>
@@ -6229,49 +6229,49 @@
         <v>217.3564621562495</v>
       </c>
       <c r="K26" t="n">
-        <v>428.0194649169796</v>
+        <v>428.0194649169799</v>
       </c>
       <c r="L26" t="n">
-        <v>695.3620842405351</v>
+        <v>695.3620842405353</v>
       </c>
       <c r="M26" t="n">
-        <v>997.9785432306619</v>
+        <v>997.9785432306624</v>
       </c>
       <c r="N26" t="n">
-        <v>1306.241396764577</v>
+        <v>1306.241396764578</v>
       </c>
       <c r="O26" t="n">
-        <v>1595.158288098557</v>
+        <v>1595.158288098558</v>
       </c>
       <c r="P26" t="n">
-        <v>1836.135757884008</v>
+        <v>1836.135757884009</v>
       </c>
       <c r="Q26" t="n">
-        <v>2009.271730617951</v>
+        <v>2009.271730617952</v>
       </c>
       <c r="R26" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S26" t="n">
-        <v>2096.10462961766</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="T26" t="n">
-        <v>2096.10462961766</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="U26" t="n">
-        <v>2096.10462961766</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="V26" t="n">
-        <v>1738.615214743909</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="W26" t="n">
-        <v>1342.223865044256</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="X26" t="n">
-        <v>1342.223865044256</v>
+        <v>1723.429653291305</v>
       </c>
       <c r="Y26" t="n">
-        <v>1342.223865044256</v>
+        <v>1318.092383246195</v>
       </c>
     </row>
     <row r="27">
@@ -6296,28 +6296,28 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G27" t="n">
-        <v>85.09906283098431</v>
+        <v>85.09906283098432</v>
       </c>
       <c r="H27" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I27" t="n">
-        <v>85.00445741771527</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J27" t="n">
-        <v>162.3865987704645</v>
+        <v>325.2715670065826</v>
       </c>
       <c r="K27" t="n">
-        <v>307.3451626062476</v>
+        <v>470.2301308423657</v>
       </c>
       <c r="L27" t="n">
-        <v>509.7872536190462</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M27" t="n">
-        <v>749.1731163324173</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N27" t="n">
-        <v>997.2362153157544</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O27" t="n">
         <v>1383.439739341724</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>917.7489085833349</v>
+        <v>1089.721471704419</v>
       </c>
       <c r="C28" t="n">
         <v>917.7489085833349</v>
@@ -6381,55 +6381,55 @@
         <v>115.0658184481959</v>
       </c>
       <c r="I28" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="J28" t="n">
-        <v>82.84021611732982</v>
+        <v>160.7619327655507</v>
       </c>
       <c r="K28" t="n">
-        <v>410.1822679736395</v>
+        <v>240.8213755078383</v>
       </c>
       <c r="L28" t="n">
-        <v>769.490391787593</v>
+        <v>348.129590843162</v>
       </c>
       <c r="M28" t="n">
-        <v>1288.276287617964</v>
+        <v>825.2972450461887</v>
       </c>
       <c r="N28" t="n">
-        <v>1400.521233069913</v>
+        <v>1335.575113340018</v>
       </c>
       <c r="O28" t="n">
-        <v>1500.896730616547</v>
+        <v>1813.652935189855</v>
       </c>
       <c r="P28" t="n">
-        <v>1896.443943434683</v>
+        <v>1896.443943434684</v>
       </c>
       <c r="Q28" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="R28" t="n">
-        <v>2088.87450195465</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S28" t="n">
-        <v>1934.168663327546</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T28" t="n">
-        <v>1694.612168011071</v>
+        <v>1856.548134301186</v>
       </c>
       <c r="U28" t="n">
-        <v>1414.476011244877</v>
+        <v>1576.411977534992</v>
       </c>
       <c r="V28" t="n">
-        <v>1132.764543852906</v>
+        <v>1576.411977534992</v>
       </c>
       <c r="W28" t="n">
-        <v>917.7489085833349</v>
+        <v>1301.559573707505</v>
       </c>
       <c r="X28" t="n">
-        <v>917.7489085833349</v>
+        <v>1279.887440416485</v>
       </c>
       <c r="Y28" t="n">
-        <v>917.7489085833349</v>
+        <v>1279.887440416485</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1676.25626532613</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="C29" t="n">
-        <v>1249.355535339431</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="D29" t="n">
-        <v>826.0629145244309</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="E29" t="n">
-        <v>826.0629145244309</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="F29" t="n">
         <v>721.9423131585411</v>
       </c>
       <c r="G29" t="n">
-        <v>319.5769832395124</v>
+        <v>319.5769832395123</v>
       </c>
       <c r="H29" t="n">
-        <v>41.92209259235321</v>
+        <v>41.9220925923532</v>
       </c>
       <c r="I29" t="n">
-        <v>82.29775374785504</v>
+        <v>82.29775374785447</v>
       </c>
       <c r="J29" t="n">
-        <v>217.35646215625</v>
+        <v>217.3564621562495</v>
       </c>
       <c r="K29" t="n">
-        <v>428.0194649169803</v>
+        <v>428.0194649169794</v>
       </c>
       <c r="L29" t="n">
-        <v>695.3620842405355</v>
+        <v>695.3620842405348</v>
       </c>
       <c r="M29" t="n">
-        <v>997.9785432306626</v>
+        <v>997.9785432306619</v>
       </c>
       <c r="N29" t="n">
-        <v>1306.241396764578</v>
+        <v>1306.241396764577</v>
       </c>
       <c r="O29" t="n">
-        <v>1595.158288098558</v>
+        <v>1595.158288098557</v>
       </c>
       <c r="P29" t="n">
-        <v>1836.135757884009</v>
+        <v>1836.135757884008</v>
       </c>
       <c r="Q29" t="n">
-        <v>2009.271730617952</v>
+        <v>2009.271730617951</v>
       </c>
       <c r="R29" t="n">
-        <v>2096.104629617661</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="S29" t="n">
-        <v>2096.104629617661</v>
+        <v>2036.713764641372</v>
       </c>
       <c r="T29" t="n">
-        <v>2096.104629617661</v>
+        <v>2036.713764641372</v>
       </c>
       <c r="U29" t="n">
-        <v>2096.104629617661</v>
+        <v>1887.543076564197</v>
       </c>
       <c r="V29" t="n">
-        <v>2096.104629617661</v>
+        <v>1530.053661690447</v>
       </c>
       <c r="W29" t="n">
-        <v>2096.104629617661</v>
+        <v>1133.662311990794</v>
       </c>
       <c r="X29" t="n">
-        <v>2096.104629617661</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="Y29" t="n">
-        <v>2096.104629617661</v>
+        <v>721.9423131585411</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G30" t="n">
-        <v>85.09906283098432</v>
+        <v>85.09906283098431</v>
       </c>
       <c r="H30" t="n">
-        <v>41.92209259235321</v>
+        <v>41.9220925923532</v>
       </c>
       <c r="I30" t="n">
-        <v>85.00445741771529</v>
+        <v>85.00445741771527</v>
       </c>
       <c r="J30" t="n">
-        <v>162.3865987704645</v>
+        <v>325.2715670065826</v>
       </c>
       <c r="K30" t="n">
         <v>470.2301308423657</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>628.3977489034928</v>
+        <v>550.9414414510796</v>
       </c>
       <c r="C31" t="n">
-        <v>456.4251857824088</v>
+        <v>378.9688783299956</v>
       </c>
       <c r="D31" t="n">
-        <v>456.4251857824088</v>
+        <v>215.6521054567663</v>
       </c>
       <c r="E31" t="n">
-        <v>456.4251857824088</v>
+        <v>49.44389960961988</v>
       </c>
       <c r="F31" t="n">
-        <v>284.5634115569692</v>
+        <v>49.44389960961988</v>
       </c>
       <c r="G31" t="n">
-        <v>119.1917902987306</v>
+        <v>49.44389960961988</v>
       </c>
       <c r="H31" t="n">
-        <v>41.92209259235321</v>
+        <v>49.44389960961988</v>
       </c>
       <c r="I31" t="n">
-        <v>41.92209259235321</v>
+        <v>41.9220925923532</v>
       </c>
       <c r="J31" t="n">
-        <v>82.84021611732985</v>
+        <v>82.84021611732982</v>
       </c>
       <c r="K31" t="n">
-        <v>410.1822679736395</v>
+        <v>162.8996588596174</v>
       </c>
       <c r="L31" t="n">
-        <v>517.4904833089631</v>
+        <v>457.8848465937159</v>
       </c>
       <c r="M31" t="n">
-        <v>1036.276379139334</v>
+        <v>976.6707424240867</v>
       </c>
       <c r="N31" t="n">
-        <v>1148.521324591283</v>
+        <v>1486.948610717916</v>
       </c>
       <c r="O31" t="n">
-        <v>1500.896730616548</v>
+        <v>1965.026432567754</v>
       </c>
       <c r="P31" t="n">
-        <v>1896.443943434684</v>
+        <v>2047.817440812582</v>
       </c>
       <c r="Q31" t="n">
-        <v>2096.104629617661</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="R31" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="S31" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="T31" t="n">
-        <v>1849.318006638176</v>
+        <v>1856.548134301185</v>
       </c>
       <c r="U31" t="n">
-        <v>1569.181849871982</v>
+        <v>1576.411977534991</v>
       </c>
       <c r="V31" t="n">
-        <v>1287.470382480011</v>
+        <v>1294.70051014302</v>
       </c>
       <c r="W31" t="n">
-        <v>1287.470382480011</v>
+        <v>1019.848106315533</v>
       </c>
       <c r="X31" t="n">
-        <v>1044.906485925816</v>
+        <v>777.2842097613376</v>
       </c>
       <c r="Y31" t="n">
-        <v>818.5637176155585</v>
+        <v>550.9414414510796</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>892.1154433940528</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="C32" t="n">
-        <v>465.214713407353</v>
+        <v>1316.315835070095</v>
       </c>
       <c r="D32" t="n">
-        <v>41.92209259235321</v>
+        <v>893.0232142550955</v>
       </c>
       <c r="E32" t="n">
-        <v>41.92209259235321</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F32" t="n">
         <v>41.92209259235321</v>
@@ -6697,22 +6697,22 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I32" t="n">
-        <v>82.29775374785447</v>
+        <v>82.29775374785459</v>
       </c>
       <c r="J32" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562498</v>
       </c>
       <c r="K32" t="n">
-        <v>428.0194649169799</v>
+        <v>428.0194649169803</v>
       </c>
       <c r="L32" t="n">
-        <v>695.3620842405352</v>
+        <v>695.3620842405358</v>
       </c>
       <c r="M32" t="n">
-        <v>997.9785432306621</v>
+        <v>997.9785432306628</v>
       </c>
       <c r="N32" t="n">
-        <v>1306.241396764577</v>
+        <v>1306.241396764578</v>
       </c>
       <c r="O32" t="n">
         <v>1595.158288098558</v>
@@ -6727,25 +6727,25 @@
         <v>2096.104629617661</v>
       </c>
       <c r="S32" t="n">
-        <v>2096.104629617661</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="T32" t="n">
-        <v>2096.104629617661</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="U32" t="n">
-        <v>2096.104629617661</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="V32" t="n">
-        <v>2096.104629617661</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="W32" t="n">
-        <v>2096.104629617661</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="X32" t="n">
-        <v>1684.384630785408</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="Y32" t="n">
-        <v>1279.047360740298</v>
+        <v>1743.216565056795</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I33" t="n">
-        <v>61.54715157330344</v>
+        <v>61.54715157330345</v>
       </c>
       <c r="J33" t="n">
-        <v>138.9292929260527</v>
+        <v>430.7270672914884</v>
       </c>
       <c r="K33" t="n">
-        <v>283.8878567618358</v>
+        <v>575.6856311272716</v>
       </c>
       <c r="L33" t="n">
-        <v>486.3299477746343</v>
+        <v>778.1277221400701</v>
       </c>
       <c r="M33" t="n">
-        <v>725.7158104880054</v>
+        <v>1017.513584853441</v>
       </c>
       <c r="N33" t="n">
-        <v>1244.501706318376</v>
+        <v>1265.576683836778</v>
       </c>
       <c r="O33" t="n">
-        <v>1467.820262108228</v>
+        <v>1488.89523962663</v>
       </c>
       <c r="P33" t="n">
         <v>1664.98644549511</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>882.043435447461</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="C34" t="n">
-        <v>710.070872326377</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="D34" t="n">
-        <v>546.7540994531477</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="E34" t="n">
-        <v>380.5458936060012</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="F34" t="n">
-        <v>208.6841193805616</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="G34" t="n">
-        <v>208.6841193805616</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H34" t="n">
-        <v>72.75940344947657</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I34" t="n">
         <v>41.92209259235321</v>
@@ -6864,16 +6864,16 @@
         <v>162.8996588596174</v>
       </c>
       <c r="L34" t="n">
-        <v>457.8848465937167</v>
+        <v>646.5967677861061</v>
       </c>
       <c r="M34" t="n">
-        <v>976.6707424240876</v>
+        <v>760.2677061249981</v>
       </c>
       <c r="N34" t="n">
-        <v>1486.948610717917</v>
+        <v>1270.545574418828</v>
       </c>
       <c r="O34" t="n">
-        <v>1965.026432567754</v>
+        <v>1748.623396268665</v>
       </c>
       <c r="P34" t="n">
         <v>2047.817440812583</v>
@@ -6885,25 +6885,25 @@
         <v>2096.104629617661</v>
       </c>
       <c r="S34" t="n">
-        <v>2096.104629617661</v>
+        <v>1941.398790990556</v>
       </c>
       <c r="T34" t="n">
-        <v>2096.104629617661</v>
+        <v>1701.842295674081</v>
       </c>
       <c r="U34" t="n">
-        <v>1815.968472851466</v>
+        <v>1421.706138907887</v>
       </c>
       <c r="V34" t="n">
-        <v>1815.968472851466</v>
+        <v>1139.994671515916</v>
       </c>
       <c r="W34" t="n">
-        <v>1541.116069023979</v>
+        <v>865.142267688429</v>
       </c>
       <c r="X34" t="n">
-        <v>1298.552172469785</v>
+        <v>622.5783711342341</v>
       </c>
       <c r="Y34" t="n">
-        <v>1072.209404159527</v>
+        <v>396.2356028239761</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>672.3068554077381</v>
+        <v>1738.61521474391</v>
       </c>
       <c r="C35" t="n">
-        <v>245.4061254210382</v>
+        <v>1316.315835070095</v>
       </c>
       <c r="D35" t="n">
-        <v>245.4061254210382</v>
+        <v>893.0232142550955</v>
       </c>
       <c r="E35" t="n">
-        <v>245.4061254210382</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F35" t="n">
-        <v>245.4061254210382</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="G35" t="n">
-        <v>245.4061254210382</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H35" t="n">
         <v>41.92209259235321</v>
       </c>
       <c r="I35" t="n">
-        <v>82.29775374785436</v>
+        <v>82.29775374785447</v>
       </c>
       <c r="J35" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562495</v>
       </c>
       <c r="K35" t="n">
-        <v>428.01946491698</v>
+        <v>428.0194649169799</v>
       </c>
       <c r="L35" t="n">
         <v>695.3620842405353</v>
@@ -6970,19 +6970,19 @@
         <v>2096.104629617661</v>
       </c>
       <c r="U35" t="n">
-        <v>1837.907618813394</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V35" t="n">
-        <v>1480.418203939644</v>
+        <v>1738.61521474391</v>
       </c>
       <c r="W35" t="n">
-        <v>1084.026854239991</v>
+        <v>1738.61521474391</v>
       </c>
       <c r="X35" t="n">
-        <v>672.3068554077381</v>
+        <v>1738.61521474391</v>
       </c>
       <c r="Y35" t="n">
-        <v>672.3068554077381</v>
+        <v>1738.61521474391</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I36" t="n">
-        <v>85.00445741771529</v>
+        <v>61.54715157330345</v>
       </c>
       <c r="J36" t="n">
-        <v>162.3865987704645</v>
+        <v>430.7270672914884</v>
       </c>
       <c r="K36" t="n">
-        <v>307.3451626062476</v>
+        <v>575.6856311272716</v>
       </c>
       <c r="L36" t="n">
-        <v>509.7872536190462</v>
+        <v>778.1277221400701</v>
       </c>
       <c r="M36" t="n">
-        <v>749.1731163324173</v>
+        <v>1017.513584853441</v>
       </c>
       <c r="N36" t="n">
-        <v>1160.121183551872</v>
+        <v>1265.576683836778</v>
       </c>
       <c r="O36" t="n">
-        <v>1383.439739341724</v>
+        <v>1488.89523962663</v>
       </c>
       <c r="P36" t="n">
-        <v>1559.530945210204</v>
+        <v>1664.98644549511</v>
       </c>
       <c r="Q36" t="n">
-        <v>1669.131383560658</v>
+        <v>1774.586883845564</v>
       </c>
       <c r="R36" t="n">
         <v>1815.413022142049</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.577745848576</v>
+        <v>788.4251345150952</v>
       </c>
       <c r="C37" t="n">
-        <v>844.6051827274922</v>
+        <v>616.4525713940112</v>
       </c>
       <c r="D37" t="n">
-        <v>681.2884098542629</v>
+        <v>453.1357985207819</v>
       </c>
       <c r="E37" t="n">
-        <v>515.0802040071164</v>
+        <v>286.9275926736355</v>
       </c>
       <c r="F37" t="n">
-        <v>343.2184297816768</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="G37" t="n">
-        <v>177.8468085234383</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="H37" t="n">
-        <v>41.92209259235321</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I37" t="n">
         <v>41.92209259235321</v>
       </c>
       <c r="J37" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732985</v>
       </c>
       <c r="K37" t="n">
-        <v>488.1039846218603</v>
+        <v>162.8996588596174</v>
       </c>
       <c r="L37" t="n">
-        <v>595.4121999571839</v>
+        <v>550.2435995118881</v>
       </c>
       <c r="M37" t="n">
-        <v>1114.198095787555</v>
+        <v>663.9145378507801</v>
       </c>
       <c r="N37" t="n">
-        <v>1226.443041239504</v>
+        <v>1174.19240614461</v>
       </c>
       <c r="O37" t="n">
-        <v>1500.896730616548</v>
+        <v>1652.270227994447</v>
       </c>
       <c r="P37" t="n">
-        <v>1896.443943434684</v>
+        <v>2047.817440812583</v>
       </c>
       <c r="Q37" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R37" t="n">
-        <v>2096.104629617661</v>
+        <v>2088.874501954651</v>
       </c>
       <c r="S37" t="n">
-        <v>2096.104629617661</v>
+        <v>1968.76573080006</v>
       </c>
       <c r="T37" t="n">
-        <v>2096.104629617661</v>
+        <v>1729.209235483585</v>
       </c>
       <c r="U37" t="n">
-        <v>1815.968472851466</v>
+        <v>1729.209235483585</v>
       </c>
       <c r="V37" t="n">
-        <v>1534.257005459495</v>
+        <v>1447.497768091614</v>
       </c>
       <c r="W37" t="n">
-        <v>1259.404601632008</v>
+        <v>1447.497768091614</v>
       </c>
       <c r="X37" t="n">
-        <v>1259.404601632008</v>
+        <v>1204.933871537419</v>
       </c>
       <c r="Y37" t="n">
-        <v>1033.06183332175</v>
+        <v>978.5911032271608</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1208.741781989629</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.741781989629</v>
+        <v>1316.315835070095</v>
       </c>
       <c r="D38" t="n">
-        <v>785.4491611746296</v>
+        <v>893.0232142550955</v>
       </c>
       <c r="E38" t="n">
-        <v>359.4722213224871</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F38" t="n">
-        <v>359.4722213224871</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="G38" t="n">
         <v>41.92209259235321</v>
@@ -7171,22 +7171,22 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I38" t="n">
-        <v>82.29775374785447</v>
+        <v>82.29775374785459</v>
       </c>
       <c r="J38" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562493</v>
       </c>
       <c r="K38" t="n">
-        <v>428.0194649169799</v>
+        <v>428.0194649169797</v>
       </c>
       <c r="L38" t="n">
-        <v>695.3620842405352</v>
+        <v>695.3620842405351</v>
       </c>
       <c r="M38" t="n">
-        <v>997.9785432306621</v>
+        <v>997.9785432306626</v>
       </c>
       <c r="N38" t="n">
-        <v>1306.241396764577</v>
+        <v>1306.241396764578</v>
       </c>
       <c r="O38" t="n">
         <v>1595.158288098558</v>
@@ -7204,22 +7204,22 @@
         <v>2036.713764641373</v>
       </c>
       <c r="T38" t="n">
-        <v>1824.428207667646</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="U38" t="n">
-        <v>1566.23119686338</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="V38" t="n">
-        <v>1208.741781989629</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="W38" t="n">
-        <v>1208.741781989629</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="X38" t="n">
-        <v>1208.741781989629</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="Y38" t="n">
-        <v>1208.741781989629</v>
+        <v>2036.713764641373</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I39" t="n">
-        <v>85.00445741771529</v>
+        <v>61.54715157330345</v>
       </c>
       <c r="J39" t="n">
-        <v>162.3865987704645</v>
+        <v>430.7270672914884</v>
       </c>
       <c r="K39" t="n">
-        <v>307.3451626062476</v>
+        <v>575.6856311272716</v>
       </c>
       <c r="L39" t="n">
-        <v>509.7872536190462</v>
+        <v>778.1277221400701</v>
       </c>
       <c r="M39" t="n">
-        <v>749.1731163324173</v>
+        <v>1017.513584853441</v>
       </c>
       <c r="N39" t="n">
-        <v>1160.121183551872</v>
+        <v>1265.576683836778</v>
       </c>
       <c r="O39" t="n">
-        <v>1383.439739341724</v>
+        <v>1488.89523962663</v>
       </c>
       <c r="P39" t="n">
-        <v>1559.530945210204</v>
+        <v>1664.98644549511</v>
       </c>
       <c r="Q39" t="n">
-        <v>1669.131383560658</v>
+        <v>1774.586883845564</v>
       </c>
       <c r="R39" t="n">
         <v>1815.413022142049</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>588.3347187586036</v>
+        <v>717.3362570442619</v>
       </c>
       <c r="C40" t="n">
-        <v>416.3621556375195</v>
+        <v>545.3636939231778</v>
       </c>
       <c r="D40" t="n">
-        <v>416.3621556375195</v>
+        <v>545.3636939231778</v>
       </c>
       <c r="E40" t="n">
-        <v>416.3621556375195</v>
+        <v>379.1554880760314</v>
       </c>
       <c r="F40" t="n">
-        <v>416.3621556375195</v>
+        <v>207.2937138505918</v>
       </c>
       <c r="G40" t="n">
-        <v>250.990534379281</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H40" t="n">
-        <v>115.0658184481959</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I40" t="n">
         <v>41.92209259235321</v>
       </c>
       <c r="J40" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732985</v>
       </c>
       <c r="K40" t="n">
-        <v>488.1039846218603</v>
+        <v>410.1822679736395</v>
       </c>
       <c r="L40" t="n">
-        <v>971.8010935483489</v>
+        <v>517.4904833089631</v>
       </c>
       <c r="M40" t="n">
-        <v>1223.330167888069</v>
+        <v>1036.276379139334</v>
       </c>
       <c r="N40" t="n">
-        <v>1335.575113340018</v>
+        <v>1546.554247433164</v>
       </c>
       <c r="O40" t="n">
-        <v>1813.652935189855</v>
+        <v>1965.026432567754</v>
       </c>
       <c r="P40" t="n">
-        <v>1896.443943434684</v>
+        <v>2047.817440812583</v>
       </c>
       <c r="Q40" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R40" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S40" t="n">
-        <v>1934.168663327547</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T40" t="n">
-        <v>1694.612168011072</v>
+        <v>1932.972761840238</v>
       </c>
       <c r="U40" t="n">
-        <v>1414.476011244878</v>
+        <v>1932.972761840238</v>
       </c>
       <c r="V40" t="n">
-        <v>1247.407352335122</v>
+        <v>1651.261294448267</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.407352335122</v>
+        <v>1376.40889062078</v>
       </c>
       <c r="X40" t="n">
-        <v>1004.843455780927</v>
+        <v>1133.844994066586</v>
       </c>
       <c r="Y40" t="n">
-        <v>778.5006874706692</v>
+        <v>907.5022257563276</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1690.767359572551</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.866629585851</v>
+        <v>1316.315835070095</v>
       </c>
       <c r="D41" t="n">
-        <v>1263.866629585851</v>
+        <v>893.0232142550955</v>
       </c>
       <c r="E41" t="n">
-        <v>837.8896897337087</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F41" t="n">
-        <v>412.7655079231089</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="G41" t="n">
         <v>41.92209259235321</v>
@@ -7411,19 +7411,19 @@
         <v>82.29775374785447</v>
       </c>
       <c r="J41" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562495</v>
       </c>
       <c r="K41" t="n">
         <v>428.0194649169799</v>
       </c>
       <c r="L41" t="n">
-        <v>695.3620842405352</v>
+        <v>695.3620842405353</v>
       </c>
       <c r="M41" t="n">
-        <v>997.9785432306621</v>
+        <v>997.9785432306624</v>
       </c>
       <c r="N41" t="n">
-        <v>1306.241396764577</v>
+        <v>1306.241396764578</v>
       </c>
       <c r="O41" t="n">
         <v>1595.158288098558</v>
@@ -7456,7 +7456,7 @@
         <v>2096.104629617661</v>
       </c>
       <c r="Y41" t="n">
-        <v>1690.767359572551</v>
+        <v>2096.104629617661</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I42" t="n">
-        <v>61.54715157330344</v>
+        <v>61.54715157330345</v>
       </c>
       <c r="J42" t="n">
-        <v>325.2715670065826</v>
+        <v>430.7270672914884</v>
       </c>
       <c r="K42" t="n">
-        <v>470.2301308423657</v>
+        <v>575.6856311272716</v>
       </c>
       <c r="L42" t="n">
-        <v>672.6722218551643</v>
+        <v>778.1277221400701</v>
       </c>
       <c r="M42" t="n">
-        <v>912.0580845685354</v>
+        <v>1017.513584853441</v>
       </c>
       <c r="N42" t="n">
-        <v>1160.121183551872</v>
+        <v>1265.576683836778</v>
       </c>
       <c r="O42" t="n">
-        <v>1383.439739341724</v>
+        <v>1488.89523962663</v>
       </c>
       <c r="P42" t="n">
-        <v>1559.530945210204</v>
+        <v>1664.98644549511</v>
       </c>
       <c r="Q42" t="n">
-        <v>1669.131383560658</v>
+        <v>1774.586883845564</v>
       </c>
       <c r="R42" t="n">
         <v>1815.413022142049</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.721471704419</v>
+        <v>1016.577745848576</v>
       </c>
       <c r="C43" t="n">
-        <v>917.7489085833349</v>
+        <v>844.6051827274922</v>
       </c>
       <c r="D43" t="n">
-        <v>754.4321357101056</v>
+        <v>681.2884098542629</v>
       </c>
       <c r="E43" t="n">
-        <v>588.2239298629592</v>
+        <v>515.0802040071164</v>
       </c>
       <c r="F43" t="n">
-        <v>416.3621556375195</v>
+        <v>343.2184297816768</v>
       </c>
       <c r="G43" t="n">
-        <v>250.990534379281</v>
+        <v>177.8468085234383</v>
       </c>
       <c r="H43" t="n">
-        <v>115.0658184481959</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I43" t="n">
         <v>41.92209259235321</v>
@@ -7572,49 +7572,49 @@
         <v>160.7619327655507</v>
       </c>
       <c r="K43" t="n">
-        <v>350.576631258393</v>
+        <v>488.1039846218603</v>
       </c>
       <c r="L43" t="n">
-        <v>457.8848465937167</v>
+        <v>971.8010935483489</v>
       </c>
       <c r="M43" t="n">
-        <v>976.6707424240876</v>
+        <v>1085.472031887241</v>
       </c>
       <c r="N43" t="n">
-        <v>1486.948610717917</v>
+        <v>1400.521233069914</v>
       </c>
       <c r="O43" t="n">
-        <v>1965.026432567754</v>
+        <v>1500.896730616548</v>
       </c>
       <c r="P43" t="n">
-        <v>2047.817440812583</v>
+        <v>1896.443943434684</v>
       </c>
       <c r="Q43" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R43" t="n">
-        <v>2096.104629617661</v>
+        <v>2088.874501954651</v>
       </c>
       <c r="S43" t="n">
-        <v>2096.104629617661</v>
+        <v>1934.168663327547</v>
       </c>
       <c r="T43" t="n">
-        <v>1856.548134301186</v>
+        <v>1694.612168011072</v>
       </c>
       <c r="U43" t="n">
-        <v>1576.411977534992</v>
+        <v>1675.650379425095</v>
       </c>
       <c r="V43" t="n">
-        <v>1576.411977534992</v>
+        <v>1675.650379425095</v>
       </c>
       <c r="W43" t="n">
-        <v>1576.411977534992</v>
+        <v>1675.650379425095</v>
       </c>
       <c r="X43" t="n">
-        <v>1506.230208726743</v>
+        <v>1433.0864828709</v>
       </c>
       <c r="Y43" t="n">
-        <v>1279.887440416485</v>
+        <v>1206.743714560642</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1114.609658937931</v>
+        <v>1318.092383246195</v>
       </c>
       <c r="C44" t="n">
         <v>891.1916532594954</v>
@@ -7645,28 +7645,28 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I44" t="n">
-        <v>82.2977537478545</v>
+        <v>82.29775374785447</v>
       </c>
       <c r="J44" t="n">
-        <v>217.3564621562495</v>
+        <v>217.3564621562496</v>
       </c>
       <c r="K44" t="n">
         <v>428.0194649169799</v>
       </c>
       <c r="L44" t="n">
-        <v>695.3620842405353</v>
+        <v>695.3620842405352</v>
       </c>
       <c r="M44" t="n">
-        <v>997.9785432306624</v>
+        <v>997.9785432306621</v>
       </c>
       <c r="N44" t="n">
-        <v>1306.241396764578</v>
+        <v>1306.241396764577</v>
       </c>
       <c r="O44" t="n">
         <v>1595.158288098558</v>
       </c>
       <c r="P44" t="n">
-        <v>1836.13575788401</v>
+        <v>1836.135757884009</v>
       </c>
       <c r="Q44" t="n">
         <v>2009.271730617952</v>
@@ -7675,25 +7675,25 @@
         <v>2096.104629617661</v>
       </c>
       <c r="S44" t="n">
-        <v>2096.104629617661</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="T44" t="n">
-        <v>1883.819072643934</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="U44" t="n">
-        <v>1883.819072643934</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="V44" t="n">
-        <v>1526.329657770183</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="W44" t="n">
-        <v>1526.329657770183</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="X44" t="n">
-        <v>1114.609658937931</v>
+        <v>1737.940747537725</v>
       </c>
       <c r="Y44" t="n">
-        <v>1114.609658937931</v>
+        <v>1737.940747537725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I45" t="n">
-        <v>61.54715157330344</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J45" t="n">
-        <v>430.7270672914887</v>
+        <v>325.2715670065826</v>
       </c>
       <c r="K45" t="n">
-        <v>575.6856311272718</v>
+        <v>470.2301308423657</v>
       </c>
       <c r="L45" t="n">
-        <v>778.1277221400703</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M45" t="n">
-        <v>1017.513584853441</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N45" t="n">
-        <v>1265.576683836779</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O45" t="n">
-        <v>1488.89523962663</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P45" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q45" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R45" t="n">
         <v>1815.413022142049</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>360.7754727390149</v>
+        <v>396.2356028239761</v>
       </c>
       <c r="C46" t="n">
-        <v>188.8029096179309</v>
+        <v>224.2630397028921</v>
       </c>
       <c r="D46" t="n">
-        <v>188.8029096179309</v>
+        <v>207.2937138505918</v>
       </c>
       <c r="E46" t="n">
-        <v>188.8029096179309</v>
+        <v>207.2937138505918</v>
       </c>
       <c r="F46" t="n">
-        <v>41.92209259235321</v>
+        <v>207.2937138505918</v>
       </c>
       <c r="G46" t="n">
         <v>41.92209259235321</v>
@@ -7806,25 +7806,25 @@
         <v>41.92209259235321</v>
       </c>
       <c r="J46" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732985</v>
       </c>
       <c r="K46" t="n">
-        <v>240.8213755078383</v>
+        <v>162.8996588596174</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1295908431619</v>
+        <v>646.5967677861061</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9154866735328</v>
+        <v>760.2677061249981</v>
       </c>
       <c r="N46" t="n">
-        <v>1377.193354967362</v>
+        <v>1270.545574418828</v>
       </c>
       <c r="O46" t="n">
-        <v>1855.2711768172</v>
+        <v>1748.623396268665</v>
       </c>
       <c r="P46" t="n">
-        <v>1938.062185062028</v>
+        <v>2047.817440812583</v>
       </c>
       <c r="Q46" t="n">
         <v>2096.104629617661</v>
@@ -7833,25 +7833,25 @@
         <v>2096.104629617661</v>
       </c>
       <c r="S46" t="n">
-        <v>2096.104629617661</v>
+        <v>1941.398790990556</v>
       </c>
       <c r="T46" t="n">
-        <v>1856.548134301186</v>
+        <v>1701.842295674081</v>
       </c>
       <c r="U46" t="n">
-        <v>1576.411977534992</v>
+        <v>1421.706138907887</v>
       </c>
       <c r="V46" t="n">
-        <v>1294.70051014302</v>
+        <v>1139.994671515916</v>
       </c>
       <c r="W46" t="n">
-        <v>1019.848106315533</v>
+        <v>865.142267688429</v>
       </c>
       <c r="X46" t="n">
-        <v>777.2842097613385</v>
+        <v>622.5783711342341</v>
       </c>
       <c r="Y46" t="n">
-        <v>550.9414414510805</v>
+        <v>396.2356028239761</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>294.7452266317532</v>
+        <v>164.5302709455738</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>409.2070277691705</v>
+        <v>204.8527835663867</v>
       </c>
       <c r="N13" t="n">
-        <v>58.53283259756692</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9005,7 +9005,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>164.5302709455738</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>164.5302709455738</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>284.1910666959443</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>203.52608587746</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>164.5302709455738</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>271.0509783040648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>389.0310556715651</v>
+        <v>54.94661156933304</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>164.5302709455738</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>164.5302709455738</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>204.8527835663876</v>
+        <v>409.2070277691706</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>110.8638946975301</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>164.5302709455738</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>294.7452266317536</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>175.8365574044541</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>409.2070277691706</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>217.9594471202513</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9953,7 +9953,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>164.5302709455738</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>164.5302709455739</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>254.5453620996261</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>409.2070277691705</v>
+        <v>367.1683998627623</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10190,10 +10190,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>164.5302709455738</v>
       </c>
       <c r="K30" t="n">
-        <v>164.5302709455739</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>189.5726993927018</v>
       </c>
       <c r="M31" t="n">
-        <v>409.2070277691706</v>
+        <v>409.2070277691705</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>254.5453620996269</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>294.7452266317533</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>273.4573705525595</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>21.28785607919414</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>189.5726993927026</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>409.2070277691707</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10524,7 +10524,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>218.5889255546359</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>294.7452266317533</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>164.5302709455738</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>282.8643690070172</v>
       </c>
       <c r="M37" t="n">
-        <v>409.2070277691706</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>175.8365574044544</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>294.7452266317533</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>164.5302709455738</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>139.2506424250787</v>
+        <v>409.2070277691706</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>321.3097854423806</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>188.2245192732626</v>
+        <v>294.7452266317533</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>110.8638946975301</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>409.2070277691707</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>204.8527835663876</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>294.7452266317536</v>
+        <v>164.5302709455738</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>409.2070277691706</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -11472,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>218.588925554636</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.8638946975301</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08674335225111918</v>
+        <v>0.08674335225113589</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.9968805664628</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>21.89035111309089</v>
@@ -23029,10 +23029,10 @@
         <v>18.31832303310772</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>20.97579887987904</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>20.21993991034182</v>
       </c>
       <c r="G8" t="n">
         <v>0.08258843891560583</v>
@@ -23089,7 +23089,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5425257709165905</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -23263,13 +23263,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>195.2078356722231</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>318.0987609038099</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.7179050456562</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.157826386379085</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7.74677138551192</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>47.30682526028772</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>382.6577907717948</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.79695632652505</v>
       </c>
       <c r="T14" t="n">
         <v>210.1627014039893</v>
@@ -23554,16 +23554,16 @@
         <v>255.6150406962232</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>218.0304042676882</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>94.84471945275823</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>136.2419406313114</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.4122885972843</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.157826386379099</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,16 +23737,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>344.731019308003</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.79695632652505</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>272.5719457258484</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>55.05790171130016</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>114.463455665669</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>100.849469632718</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>379.2479768135593</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.79695632652505</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U20" t="n">
         <v>255.6150406962232</v>
@@ -24034,7 +24034,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>62.37830745588833</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.157826386379099</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T22" t="n">
-        <v>237.16093036331</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>86.65615634600968</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24214,7 +24214,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>301.8616799768129</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>237.3678352212583</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.79695632652505</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24378,13 +24378,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>44.47169126469723</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.157826386379099</v>
+        <v>7.157826386379092</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>18.30589619033418</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>229.4259263124689</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.79695632652505</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.1627014039893</v>
@@ -24502,16 +24502,16 @@
         <v>255.6150406962232</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>97.45152860736329</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.157826386379092</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>59.2384008723368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>218.6828456305432</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>317.7935446402628</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.79695632652505</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.1627014039893</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6150406962232</v>
+        <v>107.9360594998208</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H31" t="n">
-        <v>58.06846804246057</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I31" t="n">
-        <v>72.4122885972843</v>
+        <v>64.96569965019027</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>7.157826386379092</v>
       </c>
       <c r="S31" t="n">
         <v>153.1587802408334</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.58728247583178</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.3416766198384</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.79695632652505</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>210.1627014039893</v>
@@ -24982,10 +24982,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>117.0405712551984</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>7.637090378823473</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>163.7179050456562</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I34" t="n">
-        <v>41.88335084873218</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.157826386379099</v>
+        <v>7.157826386379092</v>
       </c>
       <c r="S34" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.16093036331</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.55533680975617</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.3416766198384</v>
       </c>
       <c r="H35" t="n">
-        <v>73.42914924028943</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.79695632652505</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T35" t="n">
         <v>210.1627014039893</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.9450624265026</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I37" t="n">
-        <v>72.4122885972843</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.157826386379099</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>153.1587802408334</v>
+        <v>34.25109679778755</v>
       </c>
       <c r="T37" t="n">
-        <v>237.16093036331</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>125.0876530598829</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>83.96704917700589</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H38" t="n">
         <v>274.8783417406876</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25557,19 +25557,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.157826386379092</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>75.66038126366223</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V40" t="n">
-        <v>113.4963803973929</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>66.29069673335783</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>31.20669544239036</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H41" t="n">
         <v>274.8783417406876</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.79695632652505</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T41" t="n">
         <v>210.1627014039893</v>
@@ -25696,7 +25696,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.157826386379099</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>258.5626244984144</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25851,7 +25851,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>170.6583064684864</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>201.447897065182</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.79695632652505</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U44" t="n">
         <v>255.6150406962232</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>111.8175119113196</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>144.8839725507196</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>24.73114762786327</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>134.5654687717742</v>
@@ -26073,7 +26073,7 @@
         <v>7.157826386379099</v>
       </c>
       <c r="S46" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>602703.3507447172</v>
+        <v>602703.3507447173</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>381104.9768663149</v>
+        <v>381104.9768663147</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>381104.9768663149</v>
+        <v>381104.9768663148</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>381104.9768663149</v>
+        <v>381104.9768663148</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>381104.9768663147</v>
+        <v>381104.9768663149</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>381104.9768663149</v>
+        <v>381104.9768663147</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>381104.976866315</v>
+        <v>381104.9768663149</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>381104.9768663148</v>
+        <v>381104.9768663149</v>
       </c>
     </row>
     <row r="14">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>401641.6894811962</v>
+      </c>
+      <c r="C2" t="n">
         <v>401641.6894811961</v>
       </c>
-      <c r="C2" t="n">
-        <v>401641.6894811962</v>
-      </c>
       <c r="D2" t="n">
-        <v>401802.2338298117</v>
+        <v>401802.2338298116</v>
       </c>
       <c r="E2" t="n">
-        <v>235800.5389686776</v>
+        <v>235800.5389686775</v>
       </c>
       <c r="F2" t="n">
-        <v>235800.5389686776</v>
+        <v>235800.5389686777</v>
       </c>
       <c r="G2" t="n">
         <v>235800.5389686776</v>
@@ -26334,25 +26334,25 @@
         <v>235800.5389686776</v>
       </c>
       <c r="I2" t="n">
-        <v>235800.5389686776</v>
+        <v>235800.5389686777</v>
       </c>
       <c r="J2" t="n">
-        <v>235800.5389686775</v>
+        <v>235800.5389686777</v>
       </c>
       <c r="K2" t="n">
         <v>235800.5389686777</v>
       </c>
       <c r="L2" t="n">
-        <v>235800.5389686776</v>
+        <v>235800.5389686777</v>
       </c>
       <c r="M2" t="n">
-        <v>235800.5389686776</v>
+        <v>235800.5389686777</v>
       </c>
       <c r="N2" t="n">
-        <v>235800.5389686776</v>
+        <v>235800.5389686777</v>
       </c>
       <c r="O2" t="n">
-        <v>235800.5389686776</v>
+        <v>235800.5389686777</v>
       </c>
       <c r="P2" t="n">
         <v>235800.5389686776</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50079.88112084009</v>
+        <v>50079.88112084008</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>1115.425831848459</v>
       </c>
       <c r="E3" t="n">
-        <v>504156.4521065352</v>
+        <v>504156.4521065351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>187.6344729699259</v>
+        <v>187.6344729699313</v>
       </c>
       <c r="M3" t="n">
-        <v>130404.6617681471</v>
+        <v>130404.661768147</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="C4" t="n">
         <v>309806.3511207717</v>
@@ -26429,13 +26429,13 @@
         <v>27840.54618034205</v>
       </c>
       <c r="F4" t="n">
-        <v>27840.54618034205</v>
+        <v>27840.54618034207</v>
       </c>
       <c r="G4" t="n">
         <v>27840.54618034206</v>
       </c>
       <c r="H4" t="n">
-        <v>27840.54618034207</v>
+        <v>27840.54618034206</v>
       </c>
       <c r="I4" t="n">
         <v>27840.54618034207</v>
@@ -26444,19 +26444,19 @@
         <v>27840.54618034206</v>
       </c>
       <c r="K4" t="n">
-        <v>27840.54618034207</v>
+        <v>27840.54618034205</v>
       </c>
       <c r="L4" t="n">
-        <v>27840.54618034208</v>
+        <v>27840.54618034206</v>
       </c>
       <c r="M4" t="n">
-        <v>27840.54618034207</v>
+        <v>27840.54618034206</v>
       </c>
       <c r="N4" t="n">
         <v>27840.54618034206</v>
       </c>
       <c r="O4" t="n">
-        <v>27840.54618034206</v>
+        <v>27840.54618034207</v>
       </c>
       <c r="P4" t="n">
         <v>27840.54618034207</v>
@@ -26478,7 +26478,7 @@
         <v>34828.17311450307</v>
       </c>
       <c r="E5" t="n">
-        <v>42456.81765990867</v>
+        <v>42456.81765990866</v>
       </c>
       <c r="F5" t="n">
         <v>42456.81765990867</v>
@@ -26493,10 +26493,10 @@
         <v>42456.81765990867</v>
       </c>
       <c r="J5" t="n">
+        <v>42456.81765990867</v>
+      </c>
+      <c r="K5" t="n">
         <v>42456.81765990866</v>
-      </c>
-      <c r="K5" t="n">
-        <v>42456.81765990867</v>
       </c>
       <c r="L5" t="n">
         <v>42456.81765990867</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6994.890573054923</v>
+        <v>6973.21850831706</v>
       </c>
       <c r="C6" t="n">
-        <v>57074.77169389519</v>
+        <v>57053.09962915715</v>
       </c>
       <c r="D6" t="n">
-        <v>56296.1349390863</v>
+        <v>56275.03624702188</v>
       </c>
       <c r="E6" t="n">
-        <v>-338653.2769781083</v>
+        <v>-339267.2388661052</v>
       </c>
       <c r="F6" t="n">
-        <v>165503.1751284269</v>
+        <v>164889.21324043</v>
       </c>
       <c r="G6" t="n">
-        <v>165503.1751284269</v>
+        <v>164889.21324043</v>
       </c>
       <c r="H6" t="n">
-        <v>165503.1751284269</v>
+        <v>164889.21324043</v>
       </c>
       <c r="I6" t="n">
-        <v>165503.1751284268</v>
+        <v>164889.2132404301</v>
       </c>
       <c r="J6" t="n">
-        <v>165503.1751284268</v>
+        <v>164889.2132404301</v>
       </c>
       <c r="K6" t="n">
-        <v>165503.1751284269</v>
+        <v>164889.21324043</v>
       </c>
       <c r="L6" t="n">
-        <v>165315.5406554569</v>
+        <v>164701.5787674602</v>
       </c>
       <c r="M6" t="n">
-        <v>35098.51336027985</v>
+        <v>34484.55147228304</v>
       </c>
       <c r="N6" t="n">
-        <v>165503.1751284269</v>
+        <v>164889.2132404301</v>
       </c>
       <c r="O6" t="n">
-        <v>165503.1751284269</v>
+        <v>164889.2132404301</v>
       </c>
       <c r="P6" t="n">
-        <v>165503.1751284269</v>
+        <v>164889.21324043</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>53.00448269814503</v>
       </c>
       <c r="E3" t="n">
-        <v>486.0562976935888</v>
+        <v>486.0562976935886</v>
       </c>
       <c r="F3" t="n">
         <v>486.0562976935886</v>
@@ -26758,25 +26758,25 @@
         <v>486.0562976935886</v>
       </c>
       <c r="I3" t="n">
-        <v>486.0562976935886</v>
+        <v>486.0562976935887</v>
       </c>
       <c r="J3" t="n">
-        <v>486.0562976935886</v>
+        <v>486.0562976935887</v>
       </c>
       <c r="K3" t="n">
-        <v>486.0562976935886</v>
+        <v>486.0562976935887</v>
       </c>
       <c r="L3" t="n">
-        <v>486.0562976935886</v>
+        <v>486.0562976935887</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0562976935886</v>
+        <v>486.0562976935887</v>
       </c>
       <c r="N3" t="n">
-        <v>486.0562976935886</v>
+        <v>486.0562976935887</v>
       </c>
       <c r="O3" t="n">
-        <v>486.0562976935886</v>
+        <v>486.0562976935887</v>
       </c>
       <c r="P3" t="n">
         <v>486.0562976935886</v>
@@ -26798,10 +26798,10 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="E4" t="n">
-        <v>524.026157404415</v>
+        <v>524.0261574044149</v>
       </c>
       <c r="F4" t="n">
-        <v>524.026157404415</v>
+        <v>524.0261574044151</v>
       </c>
       <c r="G4" t="n">
         <v>524.026157404415</v>
@@ -26810,13 +26810,13 @@
         <v>524.0261574044151</v>
       </c>
       <c r="I4" t="n">
-        <v>524.026157404415</v>
+        <v>524.0261574044151</v>
       </c>
       <c r="J4" t="n">
+        <v>524.0261574044151</v>
+      </c>
+      <c r="K4" t="n">
         <v>524.0261574044149</v>
-      </c>
-      <c r="K4" t="n">
-        <v>524.0261574044151</v>
       </c>
       <c r="L4" t="n">
         <v>524.0261574044151</v>
@@ -26968,7 +26968,7 @@
         <v>1.033534692213102</v>
       </c>
       <c r="E3" t="n">
-        <v>433.0518149954437</v>
+        <v>433.0518149954436</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="E4" t="n">
-        <v>523.2847858306731</v>
+        <v>523.2847858306729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7413715737419579</v>
+        <v>0.7413715737419793</v>
       </c>
       <c r="M4" t="n">
-        <v>523.2847858306731</v>
+        <v>523.2847858306729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="M4" t="n">
-        <v>523.2847858306731</v>
+        <v>523.2847858306729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27642,7 +27642,7 @@
         <v>11.687419793854</v>
       </c>
       <c r="K5" t="n">
-        <v>9.188120483615119</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L5" t="n">
         <v>5.341568553442613</v>
@@ -27657,7 +27657,7 @@
         <v>2.188868639101635</v>
       </c>
       <c r="P5" t="n">
-        <v>7.531191812490526</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q5" t="n">
         <v>13.562754156455</v>
@@ -27739,7 +27739,7 @@
         <v>0.424509749335602</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.477581017613941</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R6" t="n">
         <v>16.73234637554063</v>
@@ -27800,7 +27800,7 @@
         <v>14.01088610452265</v>
       </c>
       <c r="K7" t="n">
-        <v>10.07631485409217</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L7" t="n">
         <v>7.985433933586291</v>
@@ -27882,7 +27882,7 @@
         <v>8.659599926410685</v>
       </c>
       <c r="L8" t="n">
-        <v>5.39730923396804</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M8" t="n">
         <v>0.01569155241409703</v>
@@ -27900,7 +27900,7 @@
         <v>13.11407025899278</v>
       </c>
       <c r="R8" t="n">
-        <v>21.64755306550058</v>
+        <v>22.35897023222267</v>
       </c>
       <c r="S8" t="n">
         <v>98.46798440374585</v>
@@ -27949,16 +27949,16 @@
         <v>92.99922442254206</v>
       </c>
       <c r="H9" t="n">
-        <v>51.74123918360299</v>
+        <v>51.08823910145107</v>
       </c>
       <c r="I9" t="n">
-        <v>12.24705477659964</v>
+        <v>11.50568320285767</v>
       </c>
       <c r="J9" t="n">
-        <v>9.839703372948977</v>
+        <v>9.098331799207012</v>
       </c>
       <c r="K9" t="n">
-        <v>3.336176774788911</v>
+        <v>3.247805283198868</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27976,13 +27976,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.452435918568485</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R9" t="n">
-        <v>15.85294916875179</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S9" t="n">
-        <v>77.65195429413829</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T9" t="n">
         <v>140.0015974811513</v>
@@ -31281,7 +31281,7 @@
         <v>0.208928434194701</v>
       </c>
       <c r="H5" t="n">
-        <v>2.139688326696482</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I5" t="n">
         <v>8.05471345929122</v>
@@ -31305,7 +31305,7 @@
         <v>35.20209071692246</v>
       </c>
       <c r="P5" t="n">
-        <v>30.04416999774077</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q5" t="n">
         <v>22.56192044814304</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1117865674089856</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H6" t="n">
         <v>1.079622901028888</v>
@@ -31387,7 +31387,7 @@
         <v>21.34633145549306</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.26945727136456</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R6" t="n">
         <v>6.940573018603515</v>
@@ -31439,7 +31439,7 @@
         <v>0.09371810296151657</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8332391336033026</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I7" t="n">
         <v>2.818358950879063</v>
@@ -31466,13 +31466,13 @@
         <v>11.33477856181833</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.84761314889572</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R7" t="n">
         <v>4.213906702251462</v>
       </c>
       <c r="S7" t="n">
-        <v>1.633250939792974</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T7" t="n">
         <v>0.4004318944719343</v>
@@ -31758,31 +31758,31 @@
         <v>20.01135300001794</v>
       </c>
       <c r="I11" t="n">
-        <v>75.33139866063149</v>
+        <v>75.33139866063148</v>
       </c>
       <c r="J11" t="n">
-        <v>165.8428972718442</v>
+        <v>165.8428972718441</v>
       </c>
       <c r="K11" t="n">
-        <v>248.5555126743351</v>
+        <v>248.555512674335</v>
       </c>
       <c r="L11" t="n">
         <v>308.355092254396</v>
       </c>
       <c r="M11" t="n">
-        <v>343.1044537985502</v>
+        <v>343.1044537985501</v>
       </c>
       <c r="N11" t="n">
-        <v>348.6562425656735</v>
+        <v>348.6562425656734</v>
       </c>
       <c r="O11" t="n">
-        <v>329.2262031277212</v>
+        <v>329.2262031277211</v>
       </c>
       <c r="P11" t="n">
         <v>280.9869474521012</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.009495547974</v>
+        <v>211.0094955479739</v>
       </c>
       <c r="R11" t="n">
         <v>122.7426488844016</v>
@@ -31791,7 +31791,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T11" t="n">
-        <v>8.553613841823857</v>
+        <v>8.553613841823854</v>
       </c>
       <c r="U11" t="n">
         <v>0.1563196133285912</v>
@@ -31837,43 +31837,43 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I12" t="n">
-        <v>35.99567864994974</v>
+        <v>35.99567864994973</v>
       </c>
       <c r="J12" t="n">
-        <v>98.7748934775245</v>
+        <v>98.77489347752449</v>
       </c>
       <c r="K12" t="n">
         <v>168.8220255866496</v>
       </c>
       <c r="L12" t="n">
-        <v>227.0020473332181</v>
+        <v>227.002047333218</v>
       </c>
       <c r="M12" t="n">
-        <v>264.9006822430059</v>
+        <v>264.9006822430058</v>
       </c>
       <c r="N12" t="n">
-        <v>271.9118150653974</v>
+        <v>271.9118150653973</v>
       </c>
       <c r="O12" t="n">
-        <v>248.7461884998501</v>
+        <v>248.74618849985</v>
       </c>
       <c r="P12" t="n">
-        <v>199.6407461224856</v>
+        <v>199.6407461224855</v>
       </c>
       <c r="Q12" t="n">
         <v>133.454551774285</v>
       </c>
       <c r="R12" t="n">
-        <v>64.9114429259476</v>
+        <v>64.91144292594758</v>
       </c>
       <c r="S12" t="n">
-        <v>19.41932472389007</v>
+        <v>19.41932472389006</v>
       </c>
       <c r="T12" t="n">
         <v>4.214016392267999</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06878155156041353</v>
+        <v>0.06878155156041352</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8764949630540124</v>
+        <v>0.8764949630540122</v>
       </c>
       <c r="H13" t="n">
-        <v>7.792837035152952</v>
+        <v>7.79283703515295</v>
       </c>
       <c r="I13" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J13" t="n">
-        <v>61.96819388791867</v>
+        <v>61.96819388791866</v>
       </c>
       <c r="K13" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L13" t="n">
-        <v>130.3108965980484</v>
+        <v>130.3108965980483</v>
       </c>
       <c r="M13" t="n">
         <v>137.3945695267303</v>
@@ -31940,10 +31940,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.3945009517319</v>
+        <v>73.39450095173189</v>
       </c>
       <c r="R13" t="n">
-        <v>39.4104007933195</v>
+        <v>39.41040079331948</v>
       </c>
       <c r="S13" t="n">
         <v>15.2749167652231</v>
@@ -31952,7 +31952,7 @@
         <v>3.745023933048961</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04780881616658255</v>
+        <v>0.04780881616658254</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32706,10 +32706,10 @@
         <v>20.01135300001794</v>
       </c>
       <c r="I23" t="n">
-        <v>75.33139866063148</v>
+        <v>75.33139866063149</v>
       </c>
       <c r="J23" t="n">
-        <v>165.8428972718441</v>
+        <v>165.8428972718442</v>
       </c>
       <c r="K23" t="n">
         <v>248.555512674335</v>
@@ -32718,19 +32718,19 @@
         <v>308.355092254396</v>
       </c>
       <c r="M23" t="n">
-        <v>343.1044537985501</v>
+        <v>343.1044537985502</v>
       </c>
       <c r="N23" t="n">
         <v>348.6562425656734</v>
       </c>
       <c r="O23" t="n">
-        <v>329.2262031277211</v>
+        <v>329.2262031277212</v>
       </c>
       <c r="P23" t="n">
         <v>280.9869474521012</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.0094955479739</v>
+        <v>211.009495547974</v>
       </c>
       <c r="R23" t="n">
         <v>122.7426488844016</v>
@@ -32739,7 +32739,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T23" t="n">
-        <v>8.553613841823854</v>
+        <v>8.553613841823855</v>
       </c>
       <c r="U23" t="n">
         <v>0.1563196133285912</v>
@@ -32785,7 +32785,7 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I24" t="n">
-        <v>35.99567864994973</v>
+        <v>35.99567864994974</v>
       </c>
       <c r="J24" t="n">
         <v>98.77489347752449</v>
@@ -32803,10 +32803,10 @@
         <v>271.9118150653973</v>
       </c>
       <c r="O24" t="n">
-        <v>248.74618849985</v>
+        <v>248.7461884998501</v>
       </c>
       <c r="P24" t="n">
-        <v>199.6407461224855</v>
+        <v>199.6407461224856</v>
       </c>
       <c r="Q24" t="n">
         <v>133.454551774285</v>
@@ -32821,7 +32821,7 @@
         <v>4.214016392267999</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06878155156041352</v>
+        <v>0.06878155156041353</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8764949630540122</v>
+        <v>0.8764949630540123</v>
       </c>
       <c r="H25" t="n">
-        <v>7.79283703515295</v>
+        <v>7.792837035152951</v>
       </c>
       <c r="I25" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J25" t="n">
-        <v>61.96819388791866</v>
+        <v>61.96819388791867</v>
       </c>
       <c r="K25" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L25" t="n">
-        <v>130.3108965980483</v>
+        <v>130.3108965980484</v>
       </c>
       <c r="M25" t="n">
         <v>137.3945695267303</v>
@@ -32891,7 +32891,7 @@
         <v>73.39450095173189</v>
       </c>
       <c r="R25" t="n">
-        <v>39.41040079331948</v>
+        <v>39.41040079331949</v>
       </c>
       <c r="S25" t="n">
         <v>15.2749167652231</v>
@@ -32943,10 +32943,10 @@
         <v>20.01135300001794</v>
       </c>
       <c r="I26" t="n">
-        <v>75.33139866063148</v>
+        <v>75.33139866063149</v>
       </c>
       <c r="J26" t="n">
-        <v>165.8428972718441</v>
+        <v>165.8428972718442</v>
       </c>
       <c r="K26" t="n">
         <v>248.555512674335</v>
@@ -32955,19 +32955,19 @@
         <v>308.355092254396</v>
       </c>
       <c r="M26" t="n">
-        <v>343.1044537985501</v>
+        <v>343.1044537985502</v>
       </c>
       <c r="N26" t="n">
         <v>348.6562425656734</v>
       </c>
       <c r="O26" t="n">
-        <v>329.2262031277211</v>
+        <v>329.2262031277212</v>
       </c>
       <c r="P26" t="n">
         <v>280.9869474521012</v>
       </c>
       <c r="Q26" t="n">
-        <v>211.0094955479739</v>
+        <v>211.009495547974</v>
       </c>
       <c r="R26" t="n">
         <v>122.7426488844016</v>
@@ -32976,7 +32976,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T26" t="n">
-        <v>8.553613841823854</v>
+        <v>8.553613841823855</v>
       </c>
       <c r="U26" t="n">
         <v>0.1563196133285912</v>
@@ -33022,7 +33022,7 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I27" t="n">
-        <v>35.99567864994973</v>
+        <v>35.99567864994974</v>
       </c>
       <c r="J27" t="n">
         <v>98.77489347752449</v>
@@ -33040,10 +33040,10 @@
         <v>271.9118150653973</v>
       </c>
       <c r="O27" t="n">
-        <v>248.74618849985</v>
+        <v>248.7461884998501</v>
       </c>
       <c r="P27" t="n">
-        <v>199.6407461224855</v>
+        <v>199.6407461224856</v>
       </c>
       <c r="Q27" t="n">
         <v>133.454551774285</v>
@@ -33058,7 +33058,7 @@
         <v>4.214016392267999</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06878155156041352</v>
+        <v>0.06878155156041353</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8764949630540122</v>
+        <v>0.8764949630540123</v>
       </c>
       <c r="H28" t="n">
-        <v>7.79283703515295</v>
+        <v>7.792837035152951</v>
       </c>
       <c r="I28" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J28" t="n">
-        <v>61.96819388791866</v>
+        <v>61.96819388791867</v>
       </c>
       <c r="K28" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L28" t="n">
-        <v>130.3108965980483</v>
+        <v>130.3108965980484</v>
       </c>
       <c r="M28" t="n">
         <v>137.3945695267303</v>
@@ -33128,7 +33128,7 @@
         <v>73.39450095173189</v>
       </c>
       <c r="R28" t="n">
-        <v>39.41040079331948</v>
+        <v>39.41040079331949</v>
       </c>
       <c r="S28" t="n">
         <v>15.2749167652231</v>
@@ -33180,10 +33180,10 @@
         <v>20.01135300001794</v>
       </c>
       <c r="I29" t="n">
-        <v>75.33139866063148</v>
+        <v>75.33139866063149</v>
       </c>
       <c r="J29" t="n">
-        <v>165.8428972718441</v>
+        <v>165.8428972718442</v>
       </c>
       <c r="K29" t="n">
         <v>248.555512674335</v>
@@ -33192,19 +33192,19 @@
         <v>308.355092254396</v>
       </c>
       <c r="M29" t="n">
-        <v>343.1044537985501</v>
+        <v>343.1044537985502</v>
       </c>
       <c r="N29" t="n">
         <v>348.6562425656734</v>
       </c>
       <c r="O29" t="n">
-        <v>329.2262031277211</v>
+        <v>329.2262031277212</v>
       </c>
       <c r="P29" t="n">
         <v>280.9869474521012</v>
       </c>
       <c r="Q29" t="n">
-        <v>211.0094955479739</v>
+        <v>211.009495547974</v>
       </c>
       <c r="R29" t="n">
         <v>122.7426488844016</v>
@@ -33213,7 +33213,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T29" t="n">
-        <v>8.553613841823854</v>
+        <v>8.553613841823855</v>
       </c>
       <c r="U29" t="n">
         <v>0.1563196133285912</v>
@@ -33259,7 +33259,7 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I30" t="n">
-        <v>35.99567864994973</v>
+        <v>35.99567864994974</v>
       </c>
       <c r="J30" t="n">
         <v>98.77489347752449</v>
@@ -33277,10 +33277,10 @@
         <v>271.9118150653973</v>
       </c>
       <c r="O30" t="n">
-        <v>248.74618849985</v>
+        <v>248.7461884998501</v>
       </c>
       <c r="P30" t="n">
-        <v>199.6407461224855</v>
+        <v>199.6407461224856</v>
       </c>
       <c r="Q30" t="n">
         <v>133.454551774285</v>
@@ -33295,7 +33295,7 @@
         <v>4.214016392267999</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06878155156041352</v>
+        <v>0.06878155156041353</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8764949630540122</v>
+        <v>0.8764949630540123</v>
       </c>
       <c r="H31" t="n">
-        <v>7.79283703515295</v>
+        <v>7.792837035152951</v>
       </c>
       <c r="I31" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J31" t="n">
-        <v>61.96819388791866</v>
+        <v>61.96819388791867</v>
       </c>
       <c r="K31" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L31" t="n">
-        <v>130.3108965980483</v>
+        <v>130.3108965980484</v>
       </c>
       <c r="M31" t="n">
         <v>137.3945695267303</v>
@@ -33365,7 +33365,7 @@
         <v>73.39450095173189</v>
       </c>
       <c r="R31" t="n">
-        <v>39.41040079331948</v>
+        <v>39.41040079331949</v>
       </c>
       <c r="S31" t="n">
         <v>15.2749167652231</v>
@@ -33417,10 +33417,10 @@
         <v>20.01135300001794</v>
       </c>
       <c r="I32" t="n">
-        <v>75.33139866063148</v>
+        <v>75.33139866063149</v>
       </c>
       <c r="J32" t="n">
-        <v>165.8428972718441</v>
+        <v>165.8428972718442</v>
       </c>
       <c r="K32" t="n">
         <v>248.555512674335</v>
@@ -33429,19 +33429,19 @@
         <v>308.355092254396</v>
       </c>
       <c r="M32" t="n">
-        <v>343.1044537985501</v>
+        <v>343.1044537985502</v>
       </c>
       <c r="N32" t="n">
         <v>348.6562425656734</v>
       </c>
       <c r="O32" t="n">
-        <v>329.2262031277211</v>
+        <v>329.2262031277212</v>
       </c>
       <c r="P32" t="n">
         <v>280.9869474521012</v>
       </c>
       <c r="Q32" t="n">
-        <v>211.0094955479739</v>
+        <v>211.009495547974</v>
       </c>
       <c r="R32" t="n">
         <v>122.7426488844016</v>
@@ -33450,7 +33450,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T32" t="n">
-        <v>8.553613841823854</v>
+        <v>8.553613841823855</v>
       </c>
       <c r="U32" t="n">
         <v>0.1563196133285912</v>
@@ -33496,7 +33496,7 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I33" t="n">
-        <v>35.99567864994973</v>
+        <v>35.99567864994974</v>
       </c>
       <c r="J33" t="n">
         <v>98.77489347752449</v>
@@ -33514,10 +33514,10 @@
         <v>271.9118150653973</v>
       </c>
       <c r="O33" t="n">
-        <v>248.74618849985</v>
+        <v>248.7461884998501</v>
       </c>
       <c r="P33" t="n">
-        <v>199.6407461224855</v>
+        <v>199.6407461224856</v>
       </c>
       <c r="Q33" t="n">
         <v>133.454551774285</v>
@@ -33532,7 +33532,7 @@
         <v>4.214016392267999</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06878155156041352</v>
+        <v>0.06878155156041353</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8764949630540122</v>
+        <v>0.8764949630540123</v>
       </c>
       <c r="H34" t="n">
-        <v>7.79283703515295</v>
+        <v>7.792837035152951</v>
       </c>
       <c r="I34" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J34" t="n">
-        <v>61.96819388791866</v>
+        <v>61.96819388791867</v>
       </c>
       <c r="K34" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L34" t="n">
-        <v>130.3108965980483</v>
+        <v>130.3108965980484</v>
       </c>
       <c r="M34" t="n">
         <v>137.3945695267303</v>
@@ -33602,7 +33602,7 @@
         <v>73.39450095173189</v>
       </c>
       <c r="R34" t="n">
-        <v>39.41040079331948</v>
+        <v>39.41040079331949</v>
       </c>
       <c r="S34" t="n">
         <v>15.2749167652231</v>
@@ -33654,10 +33654,10 @@
         <v>20.01135300001794</v>
       </c>
       <c r="I35" t="n">
-        <v>75.33139866063148</v>
+        <v>75.33139866063149</v>
       </c>
       <c r="J35" t="n">
-        <v>165.8428972718441</v>
+        <v>165.8428972718442</v>
       </c>
       <c r="K35" t="n">
         <v>248.555512674335</v>
@@ -33666,19 +33666,19 @@
         <v>308.355092254396</v>
       </c>
       <c r="M35" t="n">
-        <v>343.1044537985501</v>
+        <v>343.1044537985502</v>
       </c>
       <c r="N35" t="n">
         <v>348.6562425656734</v>
       </c>
       <c r="O35" t="n">
-        <v>329.2262031277211</v>
+        <v>329.2262031277212</v>
       </c>
       <c r="P35" t="n">
         <v>280.9869474521012</v>
       </c>
       <c r="Q35" t="n">
-        <v>211.0094955479739</v>
+        <v>211.009495547974</v>
       </c>
       <c r="R35" t="n">
         <v>122.7426488844016</v>
@@ -33687,7 +33687,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T35" t="n">
-        <v>8.553613841823854</v>
+        <v>8.553613841823855</v>
       </c>
       <c r="U35" t="n">
         <v>0.1563196133285912</v>
@@ -33733,7 +33733,7 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I36" t="n">
-        <v>35.99567864994973</v>
+        <v>35.99567864994974</v>
       </c>
       <c r="J36" t="n">
         <v>98.77489347752449</v>
@@ -33751,10 +33751,10 @@
         <v>271.9118150653973</v>
       </c>
       <c r="O36" t="n">
-        <v>248.74618849985</v>
+        <v>248.7461884998501</v>
       </c>
       <c r="P36" t="n">
-        <v>199.6407461224855</v>
+        <v>199.6407461224856</v>
       </c>
       <c r="Q36" t="n">
         <v>133.454551774285</v>
@@ -33769,7 +33769,7 @@
         <v>4.214016392267999</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06878155156041352</v>
+        <v>0.06878155156041353</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8764949630540122</v>
+        <v>0.8764949630540123</v>
       </c>
       <c r="H37" t="n">
-        <v>7.79283703515295</v>
+        <v>7.792837035152951</v>
       </c>
       <c r="I37" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J37" t="n">
-        <v>61.96819388791866</v>
+        <v>61.96819388791867</v>
       </c>
       <c r="K37" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L37" t="n">
-        <v>130.3108965980483</v>
+        <v>130.3108965980484</v>
       </c>
       <c r="M37" t="n">
         <v>137.3945695267303</v>
@@ -33839,7 +33839,7 @@
         <v>73.39450095173189</v>
       </c>
       <c r="R37" t="n">
-        <v>39.41040079331948</v>
+        <v>39.41040079331949</v>
       </c>
       <c r="S37" t="n">
         <v>15.2749167652231</v>
@@ -33891,10 +33891,10 @@
         <v>20.01135300001794</v>
       </c>
       <c r="I38" t="n">
-        <v>75.33139866063148</v>
+        <v>75.33139866063149</v>
       </c>
       <c r="J38" t="n">
-        <v>165.8428972718441</v>
+        <v>165.8428972718442</v>
       </c>
       <c r="K38" t="n">
         <v>248.555512674335</v>
@@ -33903,19 +33903,19 @@
         <v>308.355092254396</v>
       </c>
       <c r="M38" t="n">
-        <v>343.1044537985501</v>
+        <v>343.1044537985502</v>
       </c>
       <c r="N38" t="n">
         <v>348.6562425656734</v>
       </c>
       <c r="O38" t="n">
-        <v>329.2262031277211</v>
+        <v>329.2262031277212</v>
       </c>
       <c r="P38" t="n">
         <v>280.9869474521012</v>
       </c>
       <c r="Q38" t="n">
-        <v>211.0094955479739</v>
+        <v>211.009495547974</v>
       </c>
       <c r="R38" t="n">
         <v>122.7426488844016</v>
@@ -33924,7 +33924,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T38" t="n">
-        <v>8.553613841823854</v>
+        <v>8.553613841823855</v>
       </c>
       <c r="U38" t="n">
         <v>0.1563196133285912</v>
@@ -33970,7 +33970,7 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I39" t="n">
-        <v>35.99567864994973</v>
+        <v>35.99567864994974</v>
       </c>
       <c r="J39" t="n">
         <v>98.77489347752449</v>
@@ -33988,10 +33988,10 @@
         <v>271.9118150653973</v>
       </c>
       <c r="O39" t="n">
-        <v>248.74618849985</v>
+        <v>248.7461884998501</v>
       </c>
       <c r="P39" t="n">
-        <v>199.6407461224855</v>
+        <v>199.6407461224856</v>
       </c>
       <c r="Q39" t="n">
         <v>133.454551774285</v>
@@ -34006,7 +34006,7 @@
         <v>4.214016392267999</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06878155156041352</v>
+        <v>0.06878155156041353</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8764949630540122</v>
+        <v>0.8764949630540123</v>
       </c>
       <c r="H40" t="n">
-        <v>7.79283703515295</v>
+        <v>7.792837035152951</v>
       </c>
       <c r="I40" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J40" t="n">
-        <v>61.96819388791866</v>
+        <v>61.96819388791867</v>
       </c>
       <c r="K40" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L40" t="n">
-        <v>130.3108965980483</v>
+        <v>130.3108965980484</v>
       </c>
       <c r="M40" t="n">
         <v>137.3945695267303</v>
@@ -34076,7 +34076,7 @@
         <v>73.39450095173189</v>
       </c>
       <c r="R40" t="n">
-        <v>39.41040079331948</v>
+        <v>39.41040079331949</v>
       </c>
       <c r="S40" t="n">
         <v>15.2749167652231</v>
@@ -34128,10 +34128,10 @@
         <v>20.01135300001794</v>
       </c>
       <c r="I41" t="n">
-        <v>75.33139866063148</v>
+        <v>75.33139866063149</v>
       </c>
       <c r="J41" t="n">
-        <v>165.8428972718441</v>
+        <v>165.8428972718442</v>
       </c>
       <c r="K41" t="n">
         <v>248.555512674335</v>
@@ -34140,19 +34140,19 @@
         <v>308.355092254396</v>
       </c>
       <c r="M41" t="n">
-        <v>343.1044537985501</v>
+        <v>343.1044537985502</v>
       </c>
       <c r="N41" t="n">
         <v>348.6562425656734</v>
       </c>
       <c r="O41" t="n">
-        <v>329.2262031277211</v>
+        <v>329.2262031277212</v>
       </c>
       <c r="P41" t="n">
         <v>280.9869474521012</v>
       </c>
       <c r="Q41" t="n">
-        <v>211.0094955479739</v>
+        <v>211.009495547974</v>
       </c>
       <c r="R41" t="n">
         <v>122.7426488844016</v>
@@ -34161,7 +34161,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T41" t="n">
-        <v>8.553613841823854</v>
+        <v>8.553613841823855</v>
       </c>
       <c r="U41" t="n">
         <v>0.1563196133285912</v>
@@ -34207,7 +34207,7 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I42" t="n">
-        <v>35.99567864994973</v>
+        <v>35.99567864994974</v>
       </c>
       <c r="J42" t="n">
         <v>98.77489347752449</v>
@@ -34225,10 +34225,10 @@
         <v>271.9118150653973</v>
       </c>
       <c r="O42" t="n">
-        <v>248.74618849985</v>
+        <v>248.7461884998501</v>
       </c>
       <c r="P42" t="n">
-        <v>199.6407461224855</v>
+        <v>199.6407461224856</v>
       </c>
       <c r="Q42" t="n">
         <v>133.454551774285</v>
@@ -34243,7 +34243,7 @@
         <v>4.214016392267999</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06878155156041352</v>
+        <v>0.06878155156041353</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8764949630540122</v>
+        <v>0.8764949630540123</v>
       </c>
       <c r="H43" t="n">
-        <v>7.79283703515295</v>
+        <v>7.792837035152951</v>
       </c>
       <c r="I43" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J43" t="n">
-        <v>61.96819388791866</v>
+        <v>61.96819388791867</v>
       </c>
       <c r="K43" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L43" t="n">
-        <v>130.3108965980483</v>
+        <v>130.3108965980484</v>
       </c>
       <c r="M43" t="n">
         <v>137.3945695267303</v>
@@ -34313,7 +34313,7 @@
         <v>73.39450095173189</v>
       </c>
       <c r="R43" t="n">
-        <v>39.41040079331948</v>
+        <v>39.41040079331949</v>
       </c>
       <c r="S43" t="n">
         <v>15.2749167652231</v>
@@ -34383,7 +34383,7 @@
         <v>348.6562425656734</v>
       </c>
       <c r="O44" t="n">
-        <v>329.2262031277219</v>
+        <v>329.2262031277211</v>
       </c>
       <c r="P44" t="n">
         <v>280.9869474521012</v>
@@ -35178,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7114171667220877</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.7114171667220875</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>40.78349611666799</v>
+        <v>40.78349611666798</v>
       </c>
       <c r="J11" t="n">
         <v>136.4229377862576</v>
@@ -35415,16 +35415,16 @@
         <v>212.7909118795257</v>
       </c>
       <c r="L11" t="n">
-        <v>270.0430498217731</v>
+        <v>270.043049821773</v>
       </c>
       <c r="M11" t="n">
-        <v>305.6731908991184</v>
+        <v>305.6731908991183</v>
       </c>
       <c r="N11" t="n">
-        <v>311.3766197312275</v>
+        <v>311.3766197312274</v>
       </c>
       <c r="O11" t="n">
-        <v>291.8352437716972</v>
+        <v>291.835243771697</v>
       </c>
       <c r="P11" t="n">
         <v>243.4115856418699</v>
@@ -35433,7 +35433,7 @@
         <v>174.8848209433759</v>
       </c>
       <c r="R11" t="n">
-        <v>87.70999898960514</v>
+        <v>87.70999898960511</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J12" t="n">
-        <v>372.9090057759443</v>
+        <v>242.694050089765</v>
       </c>
       <c r="K12" t="n">
-        <v>146.4227917533163</v>
+        <v>146.4227917533162</v>
       </c>
       <c r="L12" t="n">
-        <v>204.4869606189885</v>
+        <v>204.4869606189884</v>
       </c>
       <c r="M12" t="n">
-        <v>241.8039017306779</v>
+        <v>241.8039017306778</v>
       </c>
       <c r="N12" t="n">
         <v>250.5687868518557</v>
       </c>
       <c r="O12" t="n">
-        <v>225.5742987776279</v>
+        <v>225.5742987776278</v>
       </c>
       <c r="P12" t="n">
         <v>177.8699049176569</v>
@@ -35512,7 +35512,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R12" t="n">
-        <v>41.23852353180345</v>
+        <v>147.7592308902941</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.33143790401681</v>
+        <v>120.0402425991894</v>
       </c>
       <c r="K13" t="n">
-        <v>80.8681239821087</v>
+        <v>330.6485372285956</v>
       </c>
       <c r="L13" t="n">
         <v>488.5829383095845</v>
       </c>
       <c r="M13" t="n">
-        <v>524.026157404415</v>
+        <v>319.6719132016312</v>
       </c>
       <c r="N13" t="n">
-        <v>171.9115653773138</v>
+        <v>113.3787327797469</v>
       </c>
       <c r="O13" t="n">
-        <v>482.9068907574113</v>
+        <v>101.3893914612463</v>
       </c>
       <c r="P13" t="n">
-        <v>83.6272810553824</v>
+        <v>399.5426392102386</v>
       </c>
       <c r="Q13" t="n">
         <v>201.6774607908854</v>
@@ -35725,7 +35725,7 @@
         <v>43.51754022763846</v>
       </c>
       <c r="J15" t="n">
-        <v>78.16377914419115</v>
+        <v>242.694050089765</v>
       </c>
       <c r="K15" t="n">
         <v>146.4227917533162</v>
@@ -35743,7 +35743,7 @@
         <v>225.5742987776278</v>
       </c>
       <c r="P15" t="n">
-        <v>342.4001758632307</v>
+        <v>177.8699049176569</v>
       </c>
       <c r="Q15" t="n">
         <v>110.7075134853065</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.33143790401679</v>
+        <v>120.0402425991894</v>
       </c>
       <c r="K16" t="n">
-        <v>80.86812398210867</v>
+        <v>330.6485372285956</v>
       </c>
       <c r="L16" t="n">
-        <v>488.5829383095845</v>
+        <v>108.3921367023471</v>
       </c>
       <c r="M16" t="n">
-        <v>399.0101963311888</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N16" t="n">
-        <v>515.4321901957875</v>
+        <v>316.9048186572069</v>
       </c>
       <c r="O16" t="n">
-        <v>101.3893914612463</v>
+        <v>482.9068907574112</v>
       </c>
       <c r="P16" t="n">
         <v>399.5426392102386</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.77493818694694</v>
+        <v>201.6774607908854</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>43.51754022763846</v>
       </c>
       <c r="J18" t="n">
-        <v>78.16377914419115</v>
+        <v>242.694050089765</v>
       </c>
       <c r="K18" t="n">
         <v>146.4227917533162</v>
       </c>
       <c r="L18" t="n">
-        <v>475.5379389230532</v>
+        <v>204.4869606189884</v>
       </c>
       <c r="M18" t="n">
         <v>241.8039017306778</v>
@@ -35986,7 +35986,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R18" t="n">
-        <v>41.23852353180344</v>
+        <v>147.7592308902941</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401679</v>
       </c>
       <c r="K19" t="n">
-        <v>80.86812398210867</v>
+        <v>330.6485372285956</v>
       </c>
       <c r="L19" t="n">
         <v>488.5829383095845</v>
       </c>
       <c r="M19" t="n">
-        <v>503.8501853068096</v>
+        <v>169.7657412045775</v>
       </c>
       <c r="N19" t="n">
         <v>113.3787327797469</v>
@@ -36059,10 +36059,10 @@
         <v>482.9068907574112</v>
       </c>
       <c r="P19" t="n">
-        <v>83.62728105538237</v>
+        <v>399.5426392102386</v>
       </c>
       <c r="Q19" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694694</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>43.51754022763846</v>
       </c>
       <c r="J21" t="n">
-        <v>78.16377914419115</v>
+        <v>242.694050089765</v>
       </c>
       <c r="K21" t="n">
         <v>146.4227917533162</v>
@@ -36217,7 +36217,7 @@
         <v>225.5742987776278</v>
       </c>
       <c r="P21" t="n">
-        <v>342.4001758632307</v>
+        <v>177.8699049176569</v>
       </c>
       <c r="Q21" t="n">
         <v>110.7075134853065</v>
@@ -36281,25 +36281,25 @@
         <v>120.0402425991894</v>
       </c>
       <c r="K22" t="n">
-        <v>330.6485372285956</v>
+        <v>80.86812398210867</v>
       </c>
       <c r="L22" t="n">
-        <v>488.5829383095845</v>
+        <v>108.3921367023471</v>
       </c>
       <c r="M22" t="n">
-        <v>319.6719132016321</v>
+        <v>524.0261574044151</v>
       </c>
       <c r="N22" t="n">
-        <v>113.3787327797469</v>
+        <v>515.4321901957875</v>
       </c>
       <c r="O22" t="n">
-        <v>101.3893914612463</v>
+        <v>482.9068907574112</v>
       </c>
       <c r="P22" t="n">
-        <v>399.5426392102386</v>
+        <v>83.62728105538237</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.6774607908854</v>
+        <v>159.6388328844771</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>40.78349611666798</v>
+        <v>40.78349611666799</v>
       </c>
       <c r="J23" t="n">
         <v>136.4229377862576</v>
@@ -36363,16 +36363,16 @@
         <v>212.7909118795257</v>
       </c>
       <c r="L23" t="n">
-        <v>270.043049821773</v>
+        <v>270.0430498217731</v>
       </c>
       <c r="M23" t="n">
-        <v>305.6731908991183</v>
+        <v>305.6731908991184</v>
       </c>
       <c r="N23" t="n">
         <v>311.3766197312274</v>
       </c>
       <c r="O23" t="n">
-        <v>291.835243771697</v>
+        <v>291.8352437716971</v>
       </c>
       <c r="P23" t="n">
         <v>243.4115856418699</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.82329189994973</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J24" t="n">
-        <v>78.16377914419115</v>
+        <v>242.6940500897649</v>
       </c>
       <c r="K24" t="n">
-        <v>146.4227917533162</v>
+        <v>146.4227917533163</v>
       </c>
       <c r="L24" t="n">
-        <v>204.4869606189884</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M24" t="n">
         <v>241.8039017306778</v>
@@ -36454,13 +36454,13 @@
         <v>225.5742987776278</v>
       </c>
       <c r="P24" t="n">
-        <v>472.6151315494104</v>
+        <v>177.8699049176569</v>
       </c>
       <c r="Q24" t="n">
         <v>110.7075134853065</v>
       </c>
       <c r="R24" t="n">
-        <v>41.23852353180344</v>
+        <v>147.7592308902941</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401679</v>
       </c>
       <c r="K25" t="n">
         <v>330.6485372285956</v>
       </c>
       <c r="L25" t="n">
-        <v>284.2286941068012</v>
+        <v>488.5829383095845</v>
       </c>
       <c r="M25" t="n">
-        <v>524.026157404415</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N25" t="n">
         <v>113.3787327797469</v>
       </c>
       <c r="O25" t="n">
-        <v>101.3893914612463</v>
+        <v>482.9068907574112</v>
       </c>
       <c r="P25" t="n">
-        <v>399.5426392102386</v>
+        <v>301.5867281756337</v>
       </c>
       <c r="Q25" t="n">
         <v>201.6774607908854</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>40.78349611666798</v>
+        <v>40.78349611666799</v>
       </c>
       <c r="J26" t="n">
         <v>136.4229377862576</v>
@@ -36600,16 +36600,16 @@
         <v>212.7909118795257</v>
       </c>
       <c r="L26" t="n">
-        <v>270.043049821773</v>
+        <v>270.0430498217731</v>
       </c>
       <c r="M26" t="n">
-        <v>305.6731908991183</v>
+        <v>305.6731908991184</v>
       </c>
       <c r="N26" t="n">
         <v>311.3766197312274</v>
       </c>
       <c r="O26" t="n">
-        <v>291.835243771697</v>
+        <v>291.8352437716971</v>
       </c>
       <c r="P26" t="n">
         <v>243.4115856418699</v>
@@ -36673,13 +36673,13 @@
         <v>43.51754022763846</v>
       </c>
       <c r="J27" t="n">
-        <v>78.16377914419115</v>
+        <v>242.6940500897649</v>
       </c>
       <c r="K27" t="n">
-        <v>146.4227917533162</v>
+        <v>146.4227917533163</v>
       </c>
       <c r="L27" t="n">
-        <v>204.4869606189884</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M27" t="n">
         <v>241.8039017306778</v>
@@ -36688,7 +36688,7 @@
         <v>250.5687868518557</v>
       </c>
       <c r="O27" t="n">
-        <v>390.1045697232017</v>
+        <v>225.5742987776278</v>
       </c>
       <c r="P27" t="n">
         <v>177.8699049176569</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>41.33143790401679</v>
+        <v>120.0402425991894</v>
       </c>
       <c r="K28" t="n">
-        <v>330.6485372285956</v>
+        <v>80.86812398210868</v>
       </c>
       <c r="L28" t="n">
-        <v>362.9374988019733</v>
+        <v>108.3921367023472</v>
       </c>
       <c r="M28" t="n">
-        <v>524.0261574044149</v>
+        <v>481.9875294980068</v>
       </c>
       <c r="N28" t="n">
-        <v>113.3787327797469</v>
+        <v>515.4321901957875</v>
       </c>
       <c r="O28" t="n">
-        <v>101.3893914612463</v>
+        <v>482.9068907574112</v>
       </c>
       <c r="P28" t="n">
-        <v>399.5426392102386</v>
+        <v>83.62728105538238</v>
       </c>
       <c r="Q28" t="n">
         <v>201.6774607908854</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>40.78349611666798</v>
+        <v>40.78349611666799</v>
       </c>
       <c r="J29" t="n">
         <v>136.4229377862576</v>
@@ -36837,16 +36837,16 @@
         <v>212.7909118795257</v>
       </c>
       <c r="L29" t="n">
-        <v>270.043049821773</v>
+        <v>270.0430498217731</v>
       </c>
       <c r="M29" t="n">
-        <v>305.6731908991183</v>
+        <v>305.6731908991184</v>
       </c>
       <c r="N29" t="n">
         <v>311.3766197312274</v>
       </c>
       <c r="O29" t="n">
-        <v>291.835243771697</v>
+        <v>291.8352437716971</v>
       </c>
       <c r="P29" t="n">
         <v>243.4115856418699</v>
@@ -36910,13 +36910,13 @@
         <v>43.51754022763846</v>
       </c>
       <c r="J30" t="n">
-        <v>78.16377914419115</v>
+        <v>242.6940500897649</v>
       </c>
       <c r="K30" t="n">
-        <v>310.9530626988901</v>
+        <v>146.4227917533163</v>
       </c>
       <c r="L30" t="n">
-        <v>204.4869606189884</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M30" t="n">
         <v>241.8039017306778</v>
@@ -36992,25 +36992,25 @@
         <v>41.33143790401679</v>
       </c>
       <c r="K31" t="n">
-        <v>330.6485372285956</v>
+        <v>80.86812398210868</v>
       </c>
       <c r="L31" t="n">
-        <v>108.3921367023471</v>
+        <v>297.964836095049</v>
       </c>
       <c r="M31" t="n">
-        <v>524.0261574044151</v>
+        <v>524.0261574044149</v>
       </c>
       <c r="N31" t="n">
-        <v>113.3787327797469</v>
+        <v>515.4321901957875</v>
       </c>
       <c r="O31" t="n">
-        <v>355.9347535608732</v>
+        <v>482.9068907574112</v>
       </c>
       <c r="P31" t="n">
-        <v>399.5426392102386</v>
+        <v>83.62728105538238</v>
       </c>
       <c r="Q31" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694694</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>40.78349611666798</v>
+        <v>40.78349611666799</v>
       </c>
       <c r="J32" t="n">
         <v>136.4229377862576</v>
@@ -37074,16 +37074,16 @@
         <v>212.7909118795257</v>
       </c>
       <c r="L32" t="n">
-        <v>270.043049821773</v>
+        <v>270.0430498217731</v>
       </c>
       <c r="M32" t="n">
-        <v>305.6731908991183</v>
+        <v>305.6731908991184</v>
       </c>
       <c r="N32" t="n">
         <v>311.3766197312274</v>
       </c>
       <c r="O32" t="n">
-        <v>291.835243771697</v>
+        <v>291.8352437716971</v>
       </c>
       <c r="P32" t="n">
         <v>243.4115856418699</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.82329189994973</v>
+        <v>19.82329189994974</v>
       </c>
       <c r="J33" t="n">
-        <v>78.16377914419115</v>
+        <v>372.9090057759444</v>
       </c>
       <c r="K33" t="n">
-        <v>146.4227917533162</v>
+        <v>146.4227917533163</v>
       </c>
       <c r="L33" t="n">
-        <v>204.4869606189884</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M33" t="n">
         <v>241.8039017306778</v>
       </c>
       <c r="N33" t="n">
-        <v>524.0261574044151</v>
+        <v>250.5687868518557</v>
       </c>
       <c r="O33" t="n">
         <v>225.5742987776278</v>
       </c>
       <c r="P33" t="n">
-        <v>199.157760996851</v>
+        <v>177.8699049176569</v>
       </c>
       <c r="Q33" t="n">
         <v>110.7075134853065</v>
@@ -37229,13 +37229,13 @@
         <v>41.33143790401679</v>
       </c>
       <c r="K34" t="n">
-        <v>80.86812398210867</v>
+        <v>80.86812398210868</v>
       </c>
       <c r="L34" t="n">
-        <v>297.9648360950497</v>
+        <v>488.5829383095845</v>
       </c>
       <c r="M34" t="n">
-        <v>524.0261574044151</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N34" t="n">
         <v>515.4321901957875</v>
@@ -37244,7 +37244,7 @@
         <v>482.9068907574112</v>
       </c>
       <c r="P34" t="n">
-        <v>83.62728105538237</v>
+        <v>302.2162066100183</v>
       </c>
       <c r="Q34" t="n">
         <v>48.77493818694694</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>40.78349611666798</v>
+        <v>40.78349611666799</v>
       </c>
       <c r="J35" t="n">
         <v>136.4229377862576</v>
@@ -37311,16 +37311,16 @@
         <v>212.7909118795257</v>
       </c>
       <c r="L35" t="n">
-        <v>270.043049821773</v>
+        <v>270.0430498217731</v>
       </c>
       <c r="M35" t="n">
-        <v>305.6731908991183</v>
+        <v>305.6731908991184</v>
       </c>
       <c r="N35" t="n">
         <v>311.3766197312274</v>
       </c>
       <c r="O35" t="n">
-        <v>291.835243771697</v>
+        <v>291.8352437716971</v>
       </c>
       <c r="P35" t="n">
         <v>243.4115856418699</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>43.51754022763846</v>
+        <v>19.82329189994974</v>
       </c>
       <c r="J36" t="n">
-        <v>78.16377914419115</v>
+        <v>372.9090057759444</v>
       </c>
       <c r="K36" t="n">
-        <v>146.4227917533162</v>
+        <v>146.4227917533163</v>
       </c>
       <c r="L36" t="n">
-        <v>204.4869606189884</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M36" t="n">
         <v>241.8039017306778</v>
       </c>
       <c r="N36" t="n">
-        <v>415.0990577974295</v>
+        <v>250.5687868518557</v>
       </c>
       <c r="O36" t="n">
         <v>225.5742987776278</v>
@@ -37408,7 +37408,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R36" t="n">
-        <v>147.7592308902941</v>
+        <v>41.23852353180344</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401679</v>
       </c>
       <c r="K37" t="n">
-        <v>330.6485372285956</v>
+        <v>80.86812398210868</v>
       </c>
       <c r="L37" t="n">
-        <v>108.3921367023471</v>
+        <v>391.2565057093643</v>
       </c>
       <c r="M37" t="n">
-        <v>524.0261574044151</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N37" t="n">
-        <v>113.3787327797469</v>
+        <v>515.4321901957875</v>
       </c>
       <c r="O37" t="n">
-        <v>277.2259488657007</v>
+        <v>482.9068907574112</v>
       </c>
       <c r="P37" t="n">
         <v>399.5426392102386</v>
       </c>
       <c r="Q37" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694694</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>40.78349611666798</v>
+        <v>40.78349611666799</v>
       </c>
       <c r="J38" t="n">
         <v>136.4229377862576</v>
@@ -37548,16 +37548,16 @@
         <v>212.7909118795257</v>
       </c>
       <c r="L38" t="n">
-        <v>270.043049821773</v>
+        <v>270.0430498217731</v>
       </c>
       <c r="M38" t="n">
-        <v>305.6731908991183</v>
+        <v>305.6731908991184</v>
       </c>
       <c r="N38" t="n">
         <v>311.3766197312274</v>
       </c>
       <c r="O38" t="n">
-        <v>291.835243771697</v>
+        <v>291.8352437716971</v>
       </c>
       <c r="P38" t="n">
         <v>243.4115856418699</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>43.51754022763846</v>
+        <v>19.82329189994974</v>
       </c>
       <c r="J39" t="n">
-        <v>78.16377914419115</v>
+        <v>372.9090057759444</v>
       </c>
       <c r="K39" t="n">
-        <v>146.4227917533162</v>
+        <v>146.4227917533163</v>
       </c>
       <c r="L39" t="n">
-        <v>204.4869606189884</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M39" t="n">
         <v>241.8039017306778</v>
       </c>
       <c r="N39" t="n">
-        <v>415.0990577974295</v>
+        <v>250.5687868518557</v>
       </c>
       <c r="O39" t="n">
         <v>225.5742987776278</v>
@@ -37645,7 +37645,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R39" t="n">
-        <v>147.7592308902941</v>
+        <v>41.23852353180344</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401679</v>
       </c>
       <c r="K40" t="n">
         <v>330.6485372285956</v>
       </c>
       <c r="L40" t="n">
-        <v>488.5829383095845</v>
+        <v>108.3921367023472</v>
       </c>
       <c r="M40" t="n">
-        <v>254.0697720603232</v>
+        <v>524.0261574044151</v>
       </c>
       <c r="N40" t="n">
-        <v>113.3787327797469</v>
+        <v>515.4321901957875</v>
       </c>
       <c r="O40" t="n">
-        <v>482.9068907574112</v>
+        <v>422.699176903627</v>
       </c>
       <c r="P40" t="n">
-        <v>83.62728105538237</v>
+        <v>83.62728105538238</v>
       </c>
       <c r="Q40" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694694</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.78349611666798</v>
+        <v>40.78349611666799</v>
       </c>
       <c r="J41" t="n">
         <v>136.4229377862576</v>
@@ -37785,16 +37785,16 @@
         <v>212.7909118795257</v>
       </c>
       <c r="L41" t="n">
-        <v>270.043049821773</v>
+        <v>270.0430498217731</v>
       </c>
       <c r="M41" t="n">
-        <v>305.6731908991183</v>
+        <v>305.6731908991184</v>
       </c>
       <c r="N41" t="n">
         <v>311.3766197312274</v>
       </c>
       <c r="O41" t="n">
-        <v>291.835243771697</v>
+        <v>291.8352437716971</v>
       </c>
       <c r="P41" t="n">
         <v>243.4115856418699</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.82329189994973</v>
+        <v>19.82329189994974</v>
       </c>
       <c r="J42" t="n">
-        <v>266.3882984174538</v>
+        <v>372.9090057759444</v>
       </c>
       <c r="K42" t="n">
-        <v>146.4227917533162</v>
+        <v>146.4227917533163</v>
       </c>
       <c r="L42" t="n">
-        <v>204.4869606189884</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M42" t="n">
         <v>241.8039017306778</v>
@@ -37882,7 +37882,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R42" t="n">
-        <v>147.7592308902941</v>
+        <v>41.23852353180344</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>120.0402425991894</v>
       </c>
       <c r="K43" t="n">
-        <v>191.7320186796387</v>
+        <v>330.6485372285956</v>
       </c>
       <c r="L43" t="n">
-        <v>108.3921367023471</v>
+        <v>488.5829383095845</v>
       </c>
       <c r="M43" t="n">
-        <v>524.0261574044151</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N43" t="n">
-        <v>515.4321901957875</v>
+        <v>318.2315163461345</v>
       </c>
       <c r="O43" t="n">
-        <v>482.9068907574112</v>
+        <v>101.3893914612464</v>
       </c>
       <c r="P43" t="n">
-        <v>83.62728105538237</v>
+        <v>399.5426392102386</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.77493818694694</v>
+        <v>201.6774607908854</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>311.3766197312274</v>
       </c>
       <c r="O44" t="n">
-        <v>291.8352437716978</v>
+        <v>291.835243771697</v>
       </c>
       <c r="P44" t="n">
         <v>243.4115856418699</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.82329189994973</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J45" t="n">
-        <v>372.9090057759447</v>
+        <v>242.694050089765</v>
       </c>
       <c r="K45" t="n">
         <v>146.4227917533162</v>
@@ -38119,7 +38119,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R45" t="n">
-        <v>41.23852353180344</v>
+        <v>147.7592308902941</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401679</v>
       </c>
       <c r="K46" t="n">
         <v>80.86812398210867</v>
       </c>
       <c r="L46" t="n">
-        <v>108.3921367023471</v>
+        <v>488.5829383095845</v>
       </c>
       <c r="M46" t="n">
-        <v>524.0261574044151</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N46" t="n">
         <v>515.4321901957875</v>
@@ -38192,10 +38192,10 @@
         <v>482.9068907574112</v>
       </c>
       <c r="P46" t="n">
-        <v>83.62728105538237</v>
+        <v>302.2162066100183</v>
       </c>
       <c r="Q46" t="n">
-        <v>159.6388328844771</v>
+        <v>48.77493818694694</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
